--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63327783179321</v>
+        <v>21.80109503866388</v>
       </c>
       <c r="C2">
-        <v>18.11125581807963</v>
+        <v>15.05595973755867</v>
       </c>
       <c r="D2">
-        <v>4.599911819734732</v>
+        <v>4.937429460541576</v>
       </c>
       <c r="E2">
-        <v>6.453802392725184</v>
+        <v>9.860304463544143</v>
       </c>
       <c r="F2">
-        <v>39.55228020410985</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>34.58153566303172</v>
       </c>
       <c r="I2">
-        <v>25.63906882644649</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.632566753642008</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.98802587645222</v>
       </c>
       <c r="L2">
-        <v>9.715368847334945</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.70040977738831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.47424111629753</v>
+      </c>
+      <c r="O2">
+        <v>24.50029715498447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09186491891841</v>
+        <v>20.26155057220548</v>
       </c>
       <c r="C3">
-        <v>16.81024177288209</v>
+        <v>13.98747904430215</v>
       </c>
       <c r="D3">
-        <v>4.614389614654182</v>
+        <v>4.739403970449438</v>
       </c>
       <c r="E3">
-        <v>6.370600376429373</v>
+        <v>9.454314155566006</v>
       </c>
       <c r="F3">
-        <v>37.43233729040545</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>33.328158934081</v>
       </c>
       <c r="I3">
-        <v>24.66655678658042</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.508088409682636</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.64421077645324</v>
       </c>
       <c r="L3">
-        <v>9.230287642708754</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.61336907167319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.74669923752615</v>
+      </c>
+      <c r="O3">
+        <v>23.77149545040774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.09785496404448</v>
+        <v>19.32866976544864</v>
       </c>
       <c r="C4">
-        <v>15.97295338253854</v>
+        <v>13.29719238238572</v>
       </c>
       <c r="D4">
-        <v>4.626392687004875</v>
+        <v>4.61565581719331</v>
       </c>
       <c r="E4">
-        <v>6.323482218499228</v>
+        <v>9.20359292383627</v>
       </c>
       <c r="F4">
-        <v>36.116458817018</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>32.57408969934758</v>
       </c>
       <c r="I4">
-        <v>24.07853630983776</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.435353906132576</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.77570762849417</v>
       </c>
       <c r="L4">
-        <v>8.929701903287636</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.91371117347186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.9168378646774</v>
+      </c>
+      <c r="O4">
+        <v>23.34121881687643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.68059936326929</v>
+        <v>18.94898557731032</v>
       </c>
       <c r="C5">
-        <v>15.62186714902012</v>
+        <v>13.00717498291184</v>
       </c>
       <c r="D5">
-        <v>4.632003374789905</v>
+        <v>4.564749363164412</v>
       </c>
       <c r="E5">
-        <v>6.305238259097412</v>
+        <v>9.101179500449057</v>
       </c>
       <c r="F5">
-        <v>35.57701887349508</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>32.27092944584777</v>
       </c>
       <c r="I5">
-        <v>23.84128059889951</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.406637646660535</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.4107340171297</v>
       </c>
       <c r="L5">
-        <v>8.806624165162759</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.62034598186672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.9869284596982</v>
+      </c>
+      <c r="O5">
+        <v>23.17023976903635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61057194147174</v>
+        <v>18.88538518927759</v>
       </c>
       <c r="C6">
-        <v>15.5629666109811</v>
+        <v>12.9584880563111</v>
       </c>
       <c r="D6">
-        <v>4.632976721483084</v>
+        <v>4.556269578900772</v>
       </c>
       <c r="E6">
-        <v>6.302265495411656</v>
+        <v>9.084163021128729</v>
       </c>
       <c r="F6">
-        <v>35.48726480409876</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>32.22084642297457</v>
       </c>
       <c r="I6">
-        <v>23.80203026714584</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.401924941339873</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.34945903190753</v>
       </c>
       <c r="L6">
-        <v>8.786155354916414</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.57113062950022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.99861389541906</v>
+      </c>
+      <c r="O6">
+        <v>23.14211326326457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09227734665536</v>
+        <v>19.32358646635498</v>
       </c>
       <c r="C7">
-        <v>15.96825880340421</v>
+        <v>13.29331655448319</v>
       </c>
       <c r="D7">
-        <v>4.626465521972752</v>
+        <v>4.614971118424429</v>
       </c>
       <c r="E7">
-        <v>6.323232352036415</v>
+        <v>9.202212551315084</v>
       </c>
       <c r="F7">
-        <v>36.10919615010629</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>32.5699841361422</v>
       </c>
       <c r="I7">
-        <v>24.07532688709183</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.434962896716079</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.77083039230268</v>
       </c>
       <c r="L7">
-        <v>8.928044251125492</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.90978833392682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.9177800092909</v>
+      </c>
+      <c r="O7">
+        <v>23.33889522672348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.1115325366348</v>
+        <v>21.28021454052204</v>
       </c>
       <c r="C8">
-        <v>17.67051514914304</v>
+        <v>14.6945834070419</v>
       </c>
       <c r="D8">
-        <v>4.604217368173749</v>
+        <v>4.869634800781115</v>
       </c>
       <c r="E8">
-        <v>6.424265792399941</v>
+        <v>9.720684703591829</v>
       </c>
       <c r="F8">
-        <v>38.82445512997166</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>34.14628146143465</v>
       </c>
       <c r="I8">
-        <v>25.3018931149916</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.588876205583509</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.53359828284125</v>
       </c>
       <c r="L8">
-        <v>9.548735092545899</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.33218854995968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.56761907840239</v>
+      </c>
+      <c r="O8">
+        <v>24.24545433683894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.70487264894055</v>
+        <v>24.85991107543771</v>
       </c>
       <c r="C9">
-        <v>20.7140325152455</v>
+        <v>17.17631498672501</v>
       </c>
       <c r="D9">
-        <v>4.588494782125467</v>
+        <v>5.349495871594747</v>
       </c>
       <c r="E9">
-        <v>6.655805041249304</v>
+        <v>10.72166677826697</v>
       </c>
       <c r="F9">
-        <v>44.0274087102478</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>37.35222582276653</v>
       </c>
       <c r="I9">
-        <v>27.77814556141185</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.92031217882932</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.65285365290667</v>
       </c>
       <c r="L9">
-        <v>10.74122825081006</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.87356027357149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.9015854176243</v>
+      </c>
+      <c r="O9">
+        <v>26.15866267947174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13865501532454</v>
+        <v>27.26986300776498</v>
       </c>
       <c r="C10">
-        <v>22.7869531044287</v>
+        <v>18.84579207310003</v>
       </c>
       <c r="D10">
-        <v>4.598987357892461</v>
+        <v>5.687582670470928</v>
       </c>
       <c r="E10">
-        <v>6.849182537307073</v>
+        <v>11.44322343643969</v>
       </c>
       <c r="F10">
-        <v>47.77526085293439</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>39.77037129252331</v>
       </c>
       <c r="I10">
-        <v>29.64310553471957</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.1824230017671</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.74908559039758</v>
       </c>
       <c r="L10">
-        <v>11.73491480858141</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.60165484056566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.42196633878851</v>
+      </c>
+      <c r="O10">
+        <v>27.64678643599464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.20544689105878</v>
+        <v>28.32104643662809</v>
       </c>
       <c r="C11">
-        <v>23.69880187324775</v>
+        <v>19.57396326152452</v>
       </c>
       <c r="D11">
-        <v>4.609857962553042</v>
+        <v>5.837886087546519</v>
       </c>
       <c r="E11">
-        <v>6.942934903705098</v>
+        <v>11.76800379298507</v>
       </c>
       <c r="F11">
-        <v>49.46720809147055</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>40.88382792249438</v>
       </c>
       <c r="I11">
-        <v>30.50336999438012</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.305890802249743</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.6627972332056</v>
       </c>
       <c r="L11">
-        <v>12.21224403257049</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.3607881607866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.20523263020397</v>
+      </c>
+      <c r="O11">
+        <v>28.34224473619309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.60403358285901</v>
+        <v>28.71286299107262</v>
       </c>
       <c r="C12">
-        <v>24.04003115403935</v>
+        <v>19.84539846715186</v>
       </c>
       <c r="D12">
-        <v>4.614978894417889</v>
+        <v>5.894281079040318</v>
       </c>
       <c r="E12">
-        <v>6.979338456885821</v>
+        <v>11.89048270112082</v>
       </c>
       <c r="F12">
-        <v>50.10653149766553</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>41.30747468168213</v>
       </c>
       <c r="I12">
-        <v>30.83111192893314</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.353275266567377</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.00329511270228</v>
       </c>
       <c r="L12">
-        <v>12.39092558621073</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.64468077920531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.12331460246456</v>
+      </c>
+      <c r="O12">
+        <v>28.608354421645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51842297967298</v>
+        <v>28.62875177515092</v>
       </c>
       <c r="C13">
-        <v>23.9667150869227</v>
+        <v>19.78712834516508</v>
       </c>
       <c r="D13">
-        <v>4.613829113342492</v>
+        <v>5.882158824373867</v>
       </c>
       <c r="E13">
-        <v>6.971456975514631</v>
+        <v>11.864127212494</v>
       </c>
       <c r="F13">
-        <v>49.96889335617028</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>41.21614348277775</v>
       </c>
       <c r="I13">
-        <v>30.76043343001843</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.343041745027986</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.93020372696046</v>
       </c>
       <c r="L13">
-        <v>12.35253185328263</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.58369304873059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.14095111692504</v>
+      </c>
+      <c r="O13">
+        <v>28.55091838079024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.23834416156211</v>
+        <v>28.3534050518122</v>
       </c>
       <c r="C14">
-        <v>23.72695398353159</v>
+        <v>19.59637955747301</v>
       </c>
       <c r="D14">
-        <v>4.610258339492845</v>
+        <v>5.842536271861033</v>
       </c>
       <c r="E14">
-        <v>6.945911339096194</v>
+        <v>11.7780903747888</v>
       </c>
       <c r="F14">
-        <v>49.51982980950604</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>40.91864067830925</v>
       </c>
       <c r="I14">
-        <v>30.53029195275347</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.30977637972428</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.69091912702958</v>
       </c>
       <c r="L14">
-        <v>12.22698450886007</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.38421390536126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.19849040296626</v>
+      </c>
+      <c r="O14">
+        <v>28.36408181249575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.06610001622262</v>
+        <v>28.18394185310879</v>
       </c>
       <c r="C15">
-        <v>23.57957676418251</v>
+        <v>19.47898548899249</v>
       </c>
       <c r="D15">
-        <v>4.608206037151036</v>
+        <v>5.81819795518385</v>
       </c>
       <c r="E15">
-        <v>6.930383562950506</v>
+        <v>11.72532419502943</v>
       </c>
       <c r="F15">
-        <v>49.24460334552455</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>40.73667640705816</v>
       </c>
       <c r="I15">
-        <v>30.38959108006378</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.289483163910949</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.54364070799549</v>
       </c>
       <c r="L15">
-        <v>12.14981991305148</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.26157148807835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.23375336321778</v>
+      </c>
+      <c r="O15">
+        <v>28.25000141452646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06816015929782</v>
+        <v>27.20027802408539</v>
       </c>
       <c r="C16">
-        <v>22.72676878395302</v>
+        <v>18.79759074784802</v>
       </c>
       <c r="D16">
-        <v>4.598410158143333</v>
+        <v>5.677687843273517</v>
       </c>
       <c r="E16">
-        <v>6.843177725719859</v>
+        <v>11.42192720685685</v>
       </c>
       <c r="F16">
-        <v>47.66446424441429</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>39.69787885249688</v>
       </c>
       <c r="I16">
-        <v>29.58714509467911</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.17444092109607</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.68858905028476</v>
       </c>
       <c r="L16">
-        <v>11.7034181636538</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.55152581130615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.43615494349534</v>
+      </c>
+      <c r="O16">
+        <v>27.60171584753781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44590188309597</v>
+        <v>26.58544119318457</v>
       </c>
       <c r="C17">
-        <v>22.19589766584971</v>
+        <v>18.37169448661175</v>
       </c>
       <c r="D17">
-        <v>4.594047949673597</v>
+        <v>5.59057816930949</v>
       </c>
       <c r="E17">
-        <v>6.791207749366815</v>
+        <v>11.23490192738219</v>
       </c>
       <c r="F17">
-        <v>46.69206377922254</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>39.06407533083893</v>
       </c>
       <c r="I17">
-        <v>29.09807460194654</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.104963292531494</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.15398538648477</v>
       </c>
       <c r="L17">
-        <v>11.42564142593036</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.10922811759916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.56065451101958</v>
+      </c>
+      <c r="O17">
+        <v>27.20880445414543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.08416953975719</v>
+        <v>26.22754051402629</v>
       </c>
       <c r="C18">
-        <v>21.88759660697866</v>
+        <v>18.12377320762512</v>
       </c>
       <c r="D18">
-        <v>4.592104257641781</v>
+        <v>5.540146727552457</v>
       </c>
       <c r="E18">
-        <v>6.761855696514653</v>
+        <v>11.12700355253846</v>
       </c>
       <c r="F18">
-        <v>46.13150383343716</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>38.70078295373258</v>
       </c>
       <c r="I18">
-        <v>28.81787099714532</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.065398326275023</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.8427272813666</v>
       </c>
       <c r="L18">
-        <v>11.26436432611854</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.85226946517263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.63240291034095</v>
+      </c>
+      <c r="O18">
+        <v>26.98454549279651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96102428206504</v>
+        <v>26.10562240108487</v>
       </c>
       <c r="C19">
-        <v>21.78269159921508</v>
+        <v>18.03931796523867</v>
       </c>
       <c r="D19">
-        <v>4.591539639257052</v>
+        <v>5.523015853955077</v>
       </c>
       <c r="E19">
-        <v>6.752008325216957</v>
+        <v>11.09041566812309</v>
       </c>
       <c r="F19">
-        <v>45.94147961019943</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>38.57799304335065</v>
       </c>
       <c r="I19">
-        <v>28.72318067937373</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.052069906434976</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.73668683806096</v>
       </c>
       <c r="L19">
-        <v>11.2094939062726</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.76481926450204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.6567212751515</v>
+      </c>
+      <c r="O19">
+        <v>26.9089108829683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.51253545539534</v>
+        <v>26.65133113404066</v>
       </c>
       <c r="C20">
-        <v>22.25271317221775</v>
+        <v>18.41733659260728</v>
       </c>
       <c r="D20">
-        <v>4.594452934001584</v>
+        <v>5.599885282903511</v>
       </c>
       <c r="E20">
-        <v>6.796683711555918</v>
+        <v>11.25484501899408</v>
       </c>
       <c r="F20">
-        <v>46.79570506191681</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>39.13141468941091</v>
       </c>
       <c r="I20">
-        <v>29.15002184813845</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.112318112219447</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.21128327060746</v>
       </c>
       <c r="L20">
-        <v>11.45536581177295</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.15657441188935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.54738726439835</v>
+      </c>
+      <c r="O20">
+        <v>27.2504506312296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.32075260159325</v>
+        <v>28.43444842144238</v>
       </c>
       <c r="C21">
-        <v>23.79748447768372</v>
+        <v>19.65252237575871</v>
       </c>
       <c r="D21">
-        <v>4.611278796186077</v>
+        <v>5.854188644331185</v>
       </c>
       <c r="E21">
-        <v>6.95338963382363</v>
+        <v>11.80337524826932</v>
       </c>
       <c r="F21">
-        <v>49.65176329403258</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>41.00596902491516</v>
       </c>
       <c r="I21">
-        <v>30.59783372071399</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.319529924253823</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.76135027028913</v>
       </c>
       <c r="L21">
-        <v>12.26391524692165</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.44290011751895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.18158596441764</v>
+      </c>
+      <c r="O21">
+        <v>28.41888447834951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.47138276262127</v>
+        <v>29.5635604574729</v>
       </c>
       <c r="C22">
-        <v>24.78360605576414</v>
+        <v>20.43478519051601</v>
       </c>
       <c r="D22">
-        <v>4.628202845141877</v>
+        <v>6.017347135551695</v>
       </c>
       <c r="E22">
-        <v>7.061101703023981</v>
+        <v>12.15891994947338</v>
       </c>
       <c r="F22">
-        <v>51.51068499429883</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>42.24288409069099</v>
       </c>
       <c r="I22">
-        <v>31.55579814635039</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.458641554445598</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.74244632695714</v>
       </c>
       <c r="L22">
-        <v>12.78038767732804</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.26292885958333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.94338784183444</v>
+      </c>
+      <c r="O22">
+        <v>29.19866196388523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85996531956873</v>
+        <v>28.9641611669054</v>
       </c>
       <c r="C23">
-        <v>24.2592908830698</v>
+        <v>20.01949577467541</v>
       </c>
       <c r="D23">
-        <v>4.618580865517283</v>
+        <v>5.930548995433426</v>
       </c>
       <c r="E23">
-        <v>7.003103186140603</v>
+        <v>11.96942665068423</v>
       </c>
       <c r="F23">
-        <v>50.51903428267407</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>41.58159304744336</v>
       </c>
       <c r="I23">
-        <v>31.04332348544809</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.384048774535803</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.22165929694633</v>
       </c>
       <c r="L23">
-        <v>12.50575400537163</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.82704102301976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.07045661762363</v>
+      </c>
+      <c r="O23">
+        <v>28.78095867654395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.48242286909247</v>
+        <v>26.62155608584517</v>
       </c>
       <c r="C24">
-        <v>22.22703655569481</v>
+        <v>18.39671136629352</v>
       </c>
       <c r="D24">
-        <v>4.59426809266967</v>
+        <v>5.59567862835168</v>
       </c>
       <c r="E24">
-        <v>6.794206395232595</v>
+        <v>11.24582991434504</v>
       </c>
       <c r="F24">
-        <v>46.74885358775075</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>39.10096717558055</v>
       </c>
       <c r="I24">
-        <v>29.12653349720273</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.108991820342937</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.18539108467975</v>
       </c>
       <c r="L24">
-        <v>11.44193235219969</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.13517750925254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.55338484698325</v>
+      </c>
+      <c r="O24">
+        <v>27.23161732066975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.77034725373587</v>
+        <v>23.93095416972639</v>
       </c>
       <c r="C25">
-        <v>19.92063335815818</v>
+        <v>16.53261320711507</v>
       </c>
       <c r="D25">
-        <v>4.589278154397841</v>
+        <v>5.222070064340073</v>
       </c>
       <c r="E25">
-        <v>6.589306404113976</v>
+        <v>10.45307888889573</v>
       </c>
       <c r="F25">
-        <v>42.63352760064731</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>36.47359622457682</v>
       </c>
       <c r="I25">
-        <v>27.1006313103929</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.827431347673545</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.84413761513649</v>
       </c>
       <c r="L25">
-        <v>10.42154216158237</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.21143787804471</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.07984474279794</v>
+      </c>
+      <c r="O25">
+        <v>25.62667663120386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -421,28 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.80109503866388</v>
+        <v>13.6652867064996</v>
       </c>
       <c r="C2">
-        <v>15.05595973755867</v>
+        <v>7.58426985830568</v>
       </c>
       <c r="D2">
-        <v>4.937429460541576</v>
+        <v>7.429943395163561</v>
       </c>
       <c r="E2">
-        <v>9.860304463544143</v>
+        <v>10.98040293609772</v>
       </c>
       <c r="F2">
-        <v>34.58153566303172</v>
+        <v>24.47754382871723</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.632566753642008</v>
+        <v>6.430289375887106</v>
       </c>
       <c r="K2">
-        <v>18.98802587645222</v>
+        <v>12.0798181158574</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.47424111629753</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.50029715498447</v>
+        <v>17.46701179089667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.26155057220548</v>
+        <v>12.76055289387666</v>
       </c>
       <c r="C3">
-        <v>13.98747904430215</v>
+        <v>7.205572925689625</v>
       </c>
       <c r="D3">
-        <v>4.739403970449438</v>
+        <v>7.045188856918664</v>
       </c>
       <c r="E3">
-        <v>9.454314155566006</v>
+        <v>10.49470803862233</v>
       </c>
       <c r="F3">
-        <v>33.328158934081</v>
+        <v>24.18886392161096</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.508088409682636</v>
+        <v>6.326385985368585</v>
       </c>
       <c r="K3">
-        <v>17.64421077645324</v>
+        <v>11.36394985236126</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.74669923752615</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.77149545040774</v>
+        <v>17.5019068789704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.32866976544864</v>
+        <v>12.17269723475893</v>
       </c>
       <c r="C4">
-        <v>13.29719238238572</v>
+        <v>6.96260447604091</v>
       </c>
       <c r="D4">
-        <v>4.61565581719331</v>
+        <v>6.800847997101068</v>
       </c>
       <c r="E4">
-        <v>9.20359292383627</v>
+        <v>10.19099690720349</v>
       </c>
       <c r="F4">
-        <v>32.57408969934758</v>
+        <v>24.03207708193726</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.435353906132576</v>
+        <v>6.2653239835073</v>
       </c>
       <c r="K4">
-        <v>16.77570762849417</v>
+        <v>10.90104133059644</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.9168378646774</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.34121881687643</v>
+        <v>17.53874662547794</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.94898557731032</v>
+        <v>11.92496726674013</v>
       </c>
       <c r="C5">
-        <v>13.00717498291184</v>
+        <v>6.861028202182242</v>
       </c>
       <c r="D5">
-        <v>4.564749363164412</v>
+        <v>6.699354693584541</v>
       </c>
       <c r="E5">
-        <v>9.101179500449057</v>
+        <v>10.0660284084694</v>
       </c>
       <c r="F5">
-        <v>32.27092944584777</v>
+        <v>23.97323702828319</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.406637646660535</v>
+        <v>6.241139896656446</v>
       </c>
       <c r="K5">
-        <v>16.4107340171297</v>
+        <v>10.70656191112507</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.9869284596982</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.17023976903635</v>
+        <v>17.5574732391123</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.88538518927759</v>
+        <v>11.88333708988984</v>
       </c>
       <c r="C6">
-        <v>12.9584880563111</v>
+        <v>6.844008730262805</v>
       </c>
       <c r="D6">
-        <v>4.556269578900772</v>
+        <v>6.682389457170157</v>
       </c>
       <c r="E6">
-        <v>9.084163021128729</v>
+        <v>10.04521041997742</v>
       </c>
       <c r="F6">
-        <v>32.22084642297457</v>
+        <v>23.96376877277241</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.401924941339873</v>
+        <v>6.237166679766695</v>
       </c>
       <c r="K6">
-        <v>16.34945903190753</v>
+        <v>10.67391731676773</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.99861389541906</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.14211326326457</v>
+        <v>17.56080240404479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.32358646635498</v>
+        <v>12.16938940926483</v>
       </c>
       <c r="C7">
-        <v>13.29331655448319</v>
+        <v>6.961244874800262</v>
       </c>
       <c r="D7">
-        <v>4.614971118424429</v>
+        <v>6.799486840082017</v>
       </c>
       <c r="E7">
-        <v>9.202212551315084</v>
+        <v>10.18931616076185</v>
       </c>
       <c r="F7">
-        <v>32.5699841361422</v>
+        <v>24.0312632243205</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.434962896716079</v>
+        <v>6.264994983527973</v>
       </c>
       <c r="K7">
-        <v>16.77083039230268</v>
+        <v>10.8984421041908</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.9177800092909</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.33889522672348</v>
+        <v>17.53898435338275</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.28021454052204</v>
+        <v>13.360022279255</v>
       </c>
       <c r="C8">
-        <v>14.6945834070419</v>
+        <v>7.45589672443664</v>
       </c>
       <c r="D8">
-        <v>4.869634800781115</v>
+        <v>7.299023461942074</v>
       </c>
       <c r="E8">
-        <v>9.720684703591829</v>
+        <v>10.81417451867883</v>
       </c>
       <c r="F8">
-        <v>34.14628146143465</v>
+        <v>24.37370764777884</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.588876205583509</v>
+        <v>6.393903064203142</v>
       </c>
       <c r="K8">
-        <v>18.53359828284125</v>
+        <v>11.83785144811885</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.56761907840239</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.24545433683894</v>
+        <v>17.47574659569741</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.85991107543771</v>
+        <v>15.44020996808294</v>
       </c>
       <c r="C9">
-        <v>17.17631498672501</v>
+        <v>8.34092771267251</v>
       </c>
       <c r="D9">
-        <v>5.349495871594747</v>
+        <v>8.210327168631874</v>
       </c>
       <c r="E9">
-        <v>10.72166677826697</v>
+        <v>11.98933820240204</v>
       </c>
       <c r="F9">
-        <v>37.35222582276653</v>
+        <v>25.21110830993225</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.92031217882932</v>
+        <v>6.667843772172767</v>
       </c>
       <c r="K9">
-        <v>21.65285365290667</v>
+        <v>13.49390457795534</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.9015854176243</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>26.15866267947174</v>
+        <v>17.48134141466606</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26986300776498</v>
+        <v>16.81629179007502</v>
       </c>
       <c r="C10">
-        <v>18.84579207310003</v>
+        <v>8.937349326939682</v>
       </c>
       <c r="D10">
-        <v>5.687582670470928</v>
+        <v>8.834095089540481</v>
       </c>
       <c r="E10">
-        <v>11.44322343643969</v>
+        <v>12.81491313163636</v>
       </c>
       <c r="F10">
-        <v>39.77037129252331</v>
+        <v>25.93136263346242</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.1824230017671</v>
+        <v>6.881243153736703</v>
       </c>
       <c r="K10">
-        <v>23.74908559039758</v>
+        <v>14.59701228137773</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.42196633878851</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27.64678643599464</v>
+        <v>17.57449204516488</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.32104643662809</v>
+        <v>17.40995559794394</v>
       </c>
       <c r="C11">
-        <v>19.57396326152452</v>
+        <v>9.196758819823977</v>
       </c>
       <c r="D11">
-        <v>5.837886087546519</v>
+        <v>9.107353956837896</v>
       </c>
       <c r="E11">
-        <v>11.76800379298507</v>
+        <v>13.18117724423659</v>
       </c>
       <c r="F11">
-        <v>40.88382792249438</v>
+        <v>26.28243786682069</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.305890802249743</v>
+        <v>6.980799859012285</v>
       </c>
       <c r="K11">
-        <v>24.6627972332056</v>
+        <v>15.07435280543648</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.20523263020397</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>28.34224473619309</v>
+        <v>17.63834910113752</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.71286299107262</v>
+        <v>17.63017295340138</v>
       </c>
       <c r="C12">
-        <v>19.84539846715186</v>
+        <v>9.293268614842644</v>
       </c>
       <c r="D12">
-        <v>5.894281079040318</v>
+        <v>9.209289091411801</v>
       </c>
       <c r="E12">
-        <v>11.89048270112082</v>
+        <v>13.31846899138698</v>
       </c>
       <c r="F12">
-        <v>41.30747468168213</v>
+        <v>26.41878695073291</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.353275266567377</v>
+        <v>7.018843445674886</v>
       </c>
       <c r="K12">
-        <v>25.00329511270228</v>
+        <v>15.251614039779</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.12331460246456</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>28.608354421645</v>
+        <v>17.66579393063273</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.62875177515092</v>
+        <v>17.5829484071448</v>
       </c>
       <c r="C13">
-        <v>19.78712834516508</v>
+        <v>9.272560235737554</v>
       </c>
       <c r="D13">
-        <v>5.882158824373867</v>
+        <v>9.18740452856064</v>
       </c>
       <c r="E13">
-        <v>11.864127212494</v>
+        <v>13.28896412169475</v>
       </c>
       <c r="F13">
-        <v>41.21614348277775</v>
+        <v>26.38926980161921</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.343041745027986</v>
+        <v>7.010634988054817</v>
       </c>
       <c r="K13">
-        <v>24.93020372696046</v>
+        <v>15.21359279215199</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.14095111692504</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>28.55091838079024</v>
+        <v>17.65973528933876</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.3534050518122</v>
+        <v>17.42816466647975</v>
       </c>
       <c r="C14">
-        <v>19.59637955747301</v>
+        <v>9.204733308144691</v>
       </c>
       <c r="D14">
-        <v>5.842536271861033</v>
+        <v>9.115771276667447</v>
       </c>
       <c r="E14">
-        <v>11.7780903747888</v>
+        <v>13.19250079525834</v>
       </c>
       <c r="F14">
-        <v>40.91864067830925</v>
+        <v>26.29358696943895</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.30977637972428</v>
+        <v>6.983922910665311</v>
       </c>
       <c r="K14">
-        <v>24.69091912702958</v>
+        <v>15.08900613820403</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.19849040296626</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>28.36408181249575</v>
+        <v>17.64054060438313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.18394185310879</v>
+        <v>17.33275913425636</v>
       </c>
       <c r="C15">
-        <v>19.47898548899249</v>
+        <v>9.162962767376786</v>
       </c>
       <c r="D15">
-        <v>5.81819795518385</v>
+        <v>9.071692229955255</v>
       </c>
       <c r="E15">
-        <v>11.72532419502943</v>
+        <v>13.13322959174032</v>
       </c>
       <c r="F15">
-        <v>40.73667640705816</v>
+        <v>26.23542281364248</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.289483163910949</v>
+        <v>6.967605378897662</v>
       </c>
       <c r="K15">
-        <v>24.54364070799549</v>
+        <v>15.01223851629861</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.23375336321778</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28.25000141452646</v>
+        <v>17.62921346393034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.20027802408539</v>
+        <v>16.77684891558006</v>
       </c>
       <c r="C16">
-        <v>18.79759074784802</v>
+        <v>8.920155644820598</v>
       </c>
       <c r="D16">
-        <v>5.677687843273517</v>
+        <v>8.81602272390079</v>
       </c>
       <c r="E16">
-        <v>11.42192720685685</v>
+        <v>12.79078366931554</v>
       </c>
       <c r="F16">
-        <v>39.69787885249688</v>
+        <v>25.90889363460998</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.17444092109607</v>
+        <v>6.874785653321728</v>
       </c>
       <c r="K16">
-        <v>23.68858905028476</v>
+        <v>14.56532624761854</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.43615494349534</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>27.60171584753781</v>
+        <v>17.57076606210103</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58544119318457</v>
+        <v>16.42757752326537</v>
       </c>
       <c r="C17">
-        <v>18.37169448661175</v>
+        <v>8.768142056042874</v>
       </c>
       <c r="D17">
-        <v>5.59057816930949</v>
+        <v>8.656462652519108</v>
       </c>
       <c r="E17">
-        <v>11.23490192738219</v>
+        <v>12.57826968032061</v>
       </c>
       <c r="F17">
-        <v>39.06407533083893</v>
+        <v>25.7146061152276</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.104963292531494</v>
+        <v>6.818469332474039</v>
       </c>
       <c r="K17">
-        <v>23.15398538648477</v>
+        <v>14.28490598682005</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.56065451101958</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.20880445414543</v>
+        <v>17.54053720706657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22754051402629</v>
+        <v>16.22363985630267</v>
       </c>
       <c r="C18">
-        <v>18.12377320762512</v>
+        <v>8.679587434081796</v>
       </c>
       <c r="D18">
-        <v>5.540146727552457</v>
+        <v>8.563701177014622</v>
       </c>
       <c r="E18">
-        <v>11.12700355253846</v>
+        <v>12.45516535011089</v>
       </c>
       <c r="F18">
-        <v>38.70078295373258</v>
+        <v>25.60506053505749</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.065398326275023</v>
+        <v>6.78631184284149</v>
       </c>
       <c r="K18">
-        <v>22.8427272813666</v>
+        <v>14.12131082269498</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.63240291034095</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.98454549279651</v>
+        <v>17.52516204432727</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.10562240108487</v>
+        <v>16.15406520223516</v>
       </c>
       <c r="C19">
-        <v>18.03931796523867</v>
+        <v>8.649412370898137</v>
       </c>
       <c r="D19">
-        <v>5.523015853955077</v>
+        <v>8.532125436561378</v>
       </c>
       <c r="E19">
-        <v>11.09041566812309</v>
+        <v>12.41333695292538</v>
       </c>
       <c r="F19">
-        <v>38.57799304335065</v>
+        <v>25.5683475565525</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.052069906434976</v>
+        <v>6.775464506529389</v>
       </c>
       <c r="K19">
-        <v>22.73668683806096</v>
+        <v>14.06552391494378</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.6567212751515</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.9089108829683</v>
+        <v>17.52029644548187</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.65133113404066</v>
+        <v>16.46507289979298</v>
       </c>
       <c r="C20">
-        <v>18.41733659260728</v>
+        <v>8.784440222448501</v>
       </c>
       <c r="D20">
-        <v>5.599885282903511</v>
+        <v>8.673550489751911</v>
       </c>
       <c r="E20">
-        <v>11.25484501899408</v>
+        <v>12.60098294493661</v>
       </c>
       <c r="F20">
-        <v>39.13141468941091</v>
+        <v>25.73506002915998</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.112318112219447</v>
+        <v>6.824440164139841</v>
       </c>
       <c r="K20">
-        <v>23.21128327060746</v>
+        <v>14.31499561241583</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.54738726439835</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.2504506312296</v>
+        <v>17.54354565104754</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.43444842144238</v>
+        <v>17.47375250627877</v>
       </c>
       <c r="C21">
-        <v>19.65252237575871</v>
+        <v>9.224702535350989</v>
       </c>
       <c r="D21">
-        <v>5.854188644331185</v>
+        <v>9.13685375848531</v>
       </c>
       <c r="E21">
-        <v>11.80337524826932</v>
+        <v>13.22087298651453</v>
       </c>
       <c r="F21">
-        <v>41.00596902491516</v>
+        <v>26.32159867893559</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.319529924253823</v>
+        <v>6.991759666297837</v>
       </c>
       <c r="K21">
-        <v>24.76135027028913</v>
+        <v>15.12569496992649</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.18158596441764</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>28.41888447834951</v>
+        <v>17.64608859526521</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.5635604574729</v>
+        <v>18.10625640331779</v>
       </c>
       <c r="C22">
-        <v>20.43478519051601</v>
+        <v>9.502396230800269</v>
       </c>
       <c r="D22">
-        <v>6.017347135551695</v>
+        <v>9.430652952220116</v>
       </c>
       <c r="E22">
-        <v>12.15891994947338</v>
+        <v>13.61780085590407</v>
       </c>
       <c r="F22">
-        <v>42.24288409069099</v>
+        <v>26.72479350138345</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.458641554445598</v>
+        <v>7.103110600978561</v>
       </c>
       <c r="K22">
-        <v>25.74244632695714</v>
+        <v>15.63516367241506</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.94338784183444</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>29.19866196388523</v>
+        <v>17.73220843322845</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.9641611669054</v>
+        <v>17.77110280164483</v>
       </c>
       <c r="C23">
-        <v>20.01949577467541</v>
+        <v>9.355106748734027</v>
       </c>
       <c r="D23">
-        <v>5.930548995433426</v>
+        <v>9.274678067913905</v>
       </c>
       <c r="E23">
-        <v>11.96942665068423</v>
+        <v>13.40672185673205</v>
       </c>
       <c r="F23">
-        <v>41.58159304744336</v>
+        <v>26.50777315806723</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.384048774535803</v>
+        <v>7.043501611238885</v>
       </c>
       <c r="K23">
-        <v>25.22165929694633</v>
+        <v>15.36510575356656</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.07045661762363</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>28.78095867654395</v>
+        <v>17.68443964354971</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.62155608584517</v>
+        <v>16.44813101511303</v>
       </c>
       <c r="C24">
-        <v>18.39671136629352</v>
+        <v>8.777075433607026</v>
       </c>
       <c r="D24">
-        <v>5.59567862835168</v>
+        <v>8.665828278757225</v>
       </c>
       <c r="E24">
-        <v>11.24582991434504</v>
+        <v>12.59071716068709</v>
       </c>
       <c r="F24">
-        <v>39.10096717558055</v>
+        <v>25.72580611158629</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.108991820342937</v>
+        <v>6.821740066398231</v>
       </c>
       <c r="K24">
-        <v>23.18539108467975</v>
+        <v>14.30139950060118</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.55338484698325</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.23161732066975</v>
+        <v>17.5421793053408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93095416972639</v>
+        <v>14.90442590234342</v>
       </c>
       <c r="C25">
-        <v>16.53261320711507</v>
+        <v>8.11084591496579</v>
       </c>
       <c r="D25">
-        <v>5.222070064340073</v>
+        <v>7.971593937538306</v>
       </c>
       <c r="E25">
-        <v>10.45307888889573</v>
+        <v>11.67762666515431</v>
       </c>
       <c r="F25">
-        <v>36.47359622457682</v>
+        <v>24.96636243269309</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.827431347673545</v>
+        <v>6.591548451189337</v>
       </c>
       <c r="K25">
-        <v>20.84413761513649</v>
+        <v>13.06587699524771</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.07984474279794</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>25.62667663120386</v>
+        <v>17.46491829098861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.6652867064996</v>
+        <v>10.97977521793018</v>
       </c>
       <c r="C2">
-        <v>7.58426985830568</v>
+        <v>4.577166254778726</v>
       </c>
       <c r="D2">
-        <v>7.429943395163561</v>
+        <v>8.869783142047433</v>
       </c>
       <c r="E2">
-        <v>10.98040293609772</v>
+        <v>13.56659495320696</v>
       </c>
       <c r="F2">
-        <v>24.47754382871723</v>
+        <v>34.70320311954139</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.430289375887106</v>
+        <v>10.01107948678169</v>
       </c>
       <c r="K2">
-        <v>12.0798181158574</v>
+        <v>10.32542902512408</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46701179089667</v>
+        <v>26.39428807873724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76055289387666</v>
+        <v>10.70408834924449</v>
       </c>
       <c r="C3">
-        <v>7.205572925689625</v>
+        <v>4.368798852750752</v>
       </c>
       <c r="D3">
-        <v>7.045188856918664</v>
+        <v>8.80282015599138</v>
       </c>
       <c r="E3">
-        <v>10.49470803862233</v>
+        <v>13.50085619410532</v>
       </c>
       <c r="F3">
-        <v>24.18886392161096</v>
+        <v>34.76823429456911</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.326385985368585</v>
+        <v>10.01825028118371</v>
       </c>
       <c r="K3">
-        <v>11.36394985236126</v>
+        <v>10.13360073497348</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.5019068789704</v>
+        <v>26.48379298427636</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17269723475893</v>
+        <v>10.53302183520635</v>
       </c>
       <c r="C4">
-        <v>6.96260447604091</v>
+        <v>4.234880977079858</v>
       </c>
       <c r="D4">
-        <v>6.800847997101068</v>
+        <v>8.762985515714696</v>
       </c>
       <c r="E4">
-        <v>10.19099690720349</v>
+        <v>13.46316865601256</v>
       </c>
       <c r="F4">
-        <v>24.03207708193726</v>
+        <v>34.81645626696225</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.2653239835073</v>
+        <v>10.02423992581121</v>
       </c>
       <c r="K4">
-        <v>10.90104133059644</v>
+        <v>10.01547233748025</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.53874662547794</v>
+        <v>26.54431504987394</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92496726674013</v>
+        <v>10.46296495252457</v>
       </c>
       <c r="C5">
-        <v>6.861028202182242</v>
+        <v>4.178850349714602</v>
       </c>
       <c r="D5">
-        <v>6.699354693584541</v>
+        <v>8.747089012229896</v>
       </c>
       <c r="E5">
-        <v>10.0660284084694</v>
+        <v>13.44849594336943</v>
       </c>
       <c r="F5">
-        <v>23.97323702828319</v>
+        <v>34.83818776045628</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.241139896656446</v>
+        <v>10.02708004871985</v>
       </c>
       <c r="K5">
-        <v>10.70656191112507</v>
+        <v>9.967309631941678</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.5574732391123</v>
+        <v>26.57037491010194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88333708988984</v>
+        <v>10.45131433700266</v>
       </c>
       <c r="C6">
-        <v>6.844008730262805</v>
+        <v>4.169459925273744</v>
       </c>
       <c r="D6">
-        <v>6.682389457170157</v>
+        <v>8.744470137863358</v>
       </c>
       <c r="E6">
-        <v>10.04521041997742</v>
+        <v>13.44610127941558</v>
       </c>
       <c r="F6">
-        <v>23.96376877277241</v>
+        <v>34.84192177841619</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.237166679766695</v>
+        <v>10.02757577188447</v>
       </c>
       <c r="K6">
-        <v>10.67391731676773</v>
+        <v>9.95931262181214</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.56080240404479</v>
+        <v>26.57478639622641</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16938940926483</v>
+        <v>10.53207828158477</v>
       </c>
       <c r="C7">
-        <v>6.961244874800262</v>
+        <v>4.234131166191301</v>
       </c>
       <c r="D7">
-        <v>6.799486840082017</v>
+        <v>8.76276974915808</v>
       </c>
       <c r="E7">
-        <v>10.18931616076185</v>
+        <v>13.46296798453098</v>
       </c>
       <c r="F7">
-        <v>24.0312632243205</v>
+        <v>34.8167409275631</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.264994983527973</v>
+        <v>10.02427661166447</v>
       </c>
       <c r="K7">
-        <v>10.8984421041908</v>
+        <v>10.01482281401892</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.53898435338275</v>
+        <v>26.5446608513057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.360022279255</v>
+        <v>10.88515218942343</v>
       </c>
       <c r="C8">
-        <v>7.45589672443664</v>
+        <v>4.50658732325091</v>
       </c>
       <c r="D8">
-        <v>7.299023461942074</v>
+        <v>8.846437222846577</v>
       </c>
       <c r="E8">
-        <v>10.81417451867883</v>
+        <v>13.54338040466983</v>
       </c>
       <c r="F8">
-        <v>24.37370764777884</v>
+        <v>34.72390216692646</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.393903064203142</v>
+        <v>10.01322285175264</v>
       </c>
       <c r="K8">
-        <v>11.83785144811885</v>
+        <v>10.2593952362434</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.47574659569741</v>
+        <v>26.42399248533849</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.44020996808294</v>
+        <v>11.55894305067969</v>
       </c>
       <c r="C9">
-        <v>8.34092771267251</v>
+        <v>4.991776519014727</v>
       </c>
       <c r="D9">
-        <v>8.210327168631874</v>
+        <v>9.020017839317889</v>
       </c>
       <c r="E9">
-        <v>11.98933820240204</v>
+        <v>13.72172295503238</v>
       </c>
       <c r="F9">
-        <v>25.21110830993225</v>
+        <v>34.60782430427083</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.667843772172767</v>
+        <v>10.00412055979884</v>
       </c>
       <c r="K9">
-        <v>13.49390457795534</v>
+        <v>10.73359960016869</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.48134141466606</v>
+        <v>26.2316507821346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.81629179007502</v>
+        <v>12.037225413228</v>
       </c>
       <c r="C10">
-        <v>8.937349326939682</v>
+        <v>5.316523339521912</v>
       </c>
       <c r="D10">
-        <v>8.834095089540481</v>
+        <v>9.152438314685581</v>
       </c>
       <c r="E10">
-        <v>12.81491313163636</v>
+        <v>13.8645071032623</v>
       </c>
       <c r="F10">
-        <v>25.93136263346242</v>
+        <v>34.56297518525527</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.881243153736703</v>
+        <v>10.00507235230148</v>
       </c>
       <c r="K10">
-        <v>14.59701228137773</v>
+        <v>11.07527318183087</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.57449204516488</v>
+        <v>26.11750666208536</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.40995559794394</v>
+        <v>12.25014878960479</v>
       </c>
       <c r="C11">
-        <v>9.196758819823977</v>
+        <v>5.457093768452129</v>
       </c>
       <c r="D11">
-        <v>9.107353956837896</v>
+        <v>9.213542207880634</v>
       </c>
       <c r="E11">
-        <v>13.18117724423659</v>
+        <v>13.93182211561501</v>
       </c>
       <c r="F11">
-        <v>26.28243786682069</v>
+        <v>34.55138281419055</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.980799859012285</v>
+        <v>10.00715630411983</v>
       </c>
       <c r="K11">
-        <v>15.07435280543648</v>
+        <v>11.2285694728995</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.63834910113752</v>
+        <v>26.07151366382443</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.63017295340138</v>
+        <v>12.3300322629439</v>
       </c>
       <c r="C12">
-        <v>9.293268614842644</v>
+        <v>5.509276886782404</v>
       </c>
       <c r="D12">
-        <v>9.209289091411801</v>
+        <v>9.236787980637825</v>
       </c>
       <c r="E12">
-        <v>13.31846899138698</v>
+        <v>13.9576348305933</v>
       </c>
       <c r="F12">
-        <v>26.41878695073291</v>
+        <v>34.5482611396055</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.018843445674886</v>
+        <v>10.0081819625426</v>
       </c>
       <c r="K12">
-        <v>15.251614039779</v>
+        <v>11.28625910274017</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.66579393063273</v>
+        <v>26.05495299210211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.5829484071448</v>
+        <v>12.31286226897021</v>
       </c>
       <c r="C13">
-        <v>9.272560235737554</v>
+        <v>5.498085179962248</v>
       </c>
       <c r="D13">
-        <v>9.18740452856064</v>
+        <v>9.231777103428124</v>
       </c>
       <c r="E13">
-        <v>13.28896412169475</v>
+        <v>13.95206156713823</v>
       </c>
       <c r="F13">
-        <v>26.38926980161921</v>
+        <v>34.54887703675725</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.010634988054817</v>
+        <v>10.00795056534106</v>
       </c>
       <c r="K13">
-        <v>15.21359279215199</v>
+        <v>11.27385145784387</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.65973528933876</v>
+        <v>26.05848151872936</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.42816466647975</v>
+        <v>12.25673622195451</v>
       </c>
       <c r="C14">
-        <v>9.204733308144691</v>
+        <v>5.461407999152757</v>
       </c>
       <c r="D14">
-        <v>9.115771276667447</v>
+        <v>9.215452605751917</v>
       </c>
       <c r="E14">
-        <v>13.19250079525834</v>
+        <v>13.93393939324815</v>
       </c>
       <c r="F14">
-        <v>26.29358696943895</v>
+        <v>34.55110057289723</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.983922910665311</v>
+        <v>10.00723595119382</v>
       </c>
       <c r="K14">
-        <v>15.08900613820403</v>
+        <v>11.23332315209599</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.64054060438313</v>
+        <v>26.0701340381279</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.33275913425636</v>
+        <v>12.22225806195774</v>
       </c>
       <c r="C15">
-        <v>9.162962767376786</v>
+        <v>5.438805216172379</v>
       </c>
       <c r="D15">
-        <v>9.071692229955255</v>
+        <v>9.205466804740499</v>
       </c>
       <c r="E15">
-        <v>13.13322959174032</v>
+        <v>13.92288043680682</v>
       </c>
       <c r="F15">
-        <v>26.23542281364248</v>
+        <v>34.55262772224293</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.967605378897662</v>
+        <v>10.00682900141019</v>
       </c>
       <c r="K15">
-        <v>15.01223851629861</v>
+        <v>11.20844992506696</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.62921346393034</v>
+        <v>26.07738308741193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.77684891558006</v>
+        <v>12.0232100447516</v>
       </c>
       <c r="C16">
-        <v>8.920155644820598</v>
+        <v>5.30719102526494</v>
       </c>
       <c r="D16">
-        <v>8.81602272390079</v>
+        <v>9.14846095946962</v>
       </c>
       <c r="E16">
-        <v>12.79078366931554</v>
+        <v>13.86015393903856</v>
       </c>
       <c r="F16">
-        <v>25.90889363460998</v>
+        <v>34.56391017506315</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.874785653321728</v>
+        <v>10.00496930909482</v>
       </c>
       <c r="K16">
-        <v>14.56532624761854</v>
+        <v>11.06520733722177</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.57076606210103</v>
+        <v>26.12063202522345</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.42757752326537</v>
+        <v>11.89985253210397</v>
       </c>
       <c r="C17">
-        <v>8.768142056042874</v>
+        <v>5.224602246393304</v>
       </c>
       <c r="D17">
-        <v>8.656462652519108</v>
+        <v>9.113698993602139</v>
       </c>
       <c r="E17">
-        <v>12.57826968032061</v>
+        <v>13.82226580654819</v>
       </c>
       <c r="F17">
-        <v>25.7146061152276</v>
+        <v>34.57308913077942</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.818469332474039</v>
+        <v>10.00425070300993</v>
       </c>
       <c r="K17">
-        <v>14.28490598682005</v>
+        <v>10.97674728151456</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.54053720706657</v>
+        <v>26.14868521062036</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22363985630267</v>
+        <v>11.82846711632178</v>
       </c>
       <c r="C18">
-        <v>8.679587434081796</v>
+        <v>5.176426432950381</v>
       </c>
       <c r="D18">
-        <v>8.563701177014622</v>
+        <v>9.09378731014627</v>
       </c>
       <c r="E18">
-        <v>12.45516535011089</v>
+        <v>13.80069695207801</v>
       </c>
       <c r="F18">
-        <v>25.60506053505749</v>
+        <v>34.57919780809898</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.78631184284149</v>
+        <v>10.00399283892415</v>
       </c>
       <c r="K18">
-        <v>14.12131082269498</v>
+        <v>10.92566967905809</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.52516204432727</v>
+        <v>26.16537881760961</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.15406520223516</v>
+        <v>11.80422526160304</v>
       </c>
       <c r="C19">
-        <v>8.649412370898137</v>
+        <v>5.159999973854896</v>
       </c>
       <c r="D19">
-        <v>8.532125436561378</v>
+        <v>9.087060249333504</v>
       </c>
       <c r="E19">
-        <v>12.41333695292538</v>
+        <v>13.79343300536564</v>
       </c>
       <c r="F19">
-        <v>25.5683475565525</v>
+        <v>34.58140846291377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.775464506529389</v>
+        <v>10.00393225617863</v>
       </c>
       <c r="K19">
-        <v>14.06552391494378</v>
+        <v>10.9083434060717</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.52029644548187</v>
+        <v>26.17112675967799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46507289979298</v>
+        <v>11.91302959003662</v>
       </c>
       <c r="C20">
-        <v>8.784440222448501</v>
+        <v>5.233463753594438</v>
       </c>
       <c r="D20">
-        <v>8.673550489751911</v>
+        <v>9.117391053266161</v>
       </c>
       <c r="E20">
-        <v>12.60098294493661</v>
+        <v>13.82627606815958</v>
       </c>
       <c r="F20">
-        <v>25.73506002915998</v>
+        <v>34.57202618599936</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.824440164139841</v>
+        <v>10.00431111653227</v>
       </c>
       <c r="K20">
-        <v>14.31499561241583</v>
+        <v>10.98618486673841</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.54354565104754</v>
+        <v>26.14564111258044</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.47375250627877</v>
+        <v>12.27324263295798</v>
       </c>
       <c r="C21">
-        <v>9.224702535350989</v>
+        <v>5.472209544859717</v>
       </c>
       <c r="D21">
-        <v>9.13685375848531</v>
+        <v>9.220244739705722</v>
       </c>
       <c r="E21">
-        <v>13.22087298651453</v>
+        <v>13.93925371987458</v>
       </c>
       <c r="F21">
-        <v>26.32159867893559</v>
+        <v>34.55041304412718</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.991759666297837</v>
+        <v>10.00743943960367</v>
       </c>
       <c r="K21">
-        <v>15.12569496992649</v>
+        <v>11.24523749045779</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.64608859526521</v>
+        <v>26.0666881598994</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.10625640331779</v>
+        <v>12.50428313048744</v>
       </c>
       <c r="C22">
-        <v>9.502396230800269</v>
+        <v>5.622129781166314</v>
       </c>
       <c r="D22">
-        <v>9.430652952220116</v>
+        <v>9.28808147557557</v>
       </c>
       <c r="E22">
-        <v>13.61780085590407</v>
+        <v>14.01495934151364</v>
       </c>
       <c r="F22">
-        <v>26.72479350138345</v>
+        <v>34.54367912882081</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.103110600978561</v>
+        <v>10.01086204487711</v>
       </c>
       <c r="K22">
-        <v>15.63516367241506</v>
+        <v>11.41242021566396</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.73220843322845</v>
+        <v>26.02007781464023</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.77110280164483</v>
+        <v>12.38139709567189</v>
       </c>
       <c r="C23">
-        <v>9.355106748734027</v>
+        <v>5.542679194561058</v>
       </c>
       <c r="D23">
-        <v>9.274678067913905</v>
+        <v>9.251825127710902</v>
       </c>
       <c r="E23">
-        <v>13.40672185673205</v>
+        <v>13.9743888532049</v>
       </c>
       <c r="F23">
-        <v>26.50777315806723</v>
+        <v>34.54659660205275</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.043501611238885</v>
+        <v>10.00890957091051</v>
       </c>
       <c r="K23">
-        <v>15.36510575356656</v>
+        <v>11.32340286451761</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.68443964354971</v>
+        <v>26.04449712345189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.44813101511303</v>
+        <v>11.90707368624257</v>
       </c>
       <c r="C24">
-        <v>8.777075433607026</v>
+        <v>5.229459627760251</v>
       </c>
       <c r="D24">
-        <v>8.665828278757225</v>
+        <v>9.115721643046896</v>
       </c>
       <c r="E24">
-        <v>12.59071716068709</v>
+        <v>13.82446236242038</v>
       </c>
       <c r="F24">
-        <v>25.72580611158629</v>
+        <v>34.5725041531117</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.821740066398231</v>
+        <v>10.00428331985615</v>
       </c>
       <c r="K24">
-        <v>14.30139950060118</v>
+        <v>10.9819188178917</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.5421793053408</v>
+        <v>26.1470155881249</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90442590234342</v>
+        <v>11.37923818799953</v>
       </c>
       <c r="C25">
-        <v>8.11084591496579</v>
+        <v>4.865981748179006</v>
       </c>
       <c r="D25">
-        <v>7.971593937538306</v>
+        <v>8.972133776867185</v>
       </c>
       <c r="E25">
-        <v>11.67762666515431</v>
+        <v>13.67134847090455</v>
       </c>
       <c r="F25">
-        <v>24.96636243269309</v>
+        <v>34.63213843618747</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.591548451189337</v>
+        <v>10.00523908326161</v>
       </c>
       <c r="K25">
-        <v>13.06587699524771</v>
+        <v>10.60625606057951</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.46491829098861</v>
+        <v>26.27892499449919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.97977521793018</v>
+        <v>13.66528670649952</v>
       </c>
       <c r="C2">
-        <v>4.577166254778726</v>
+        <v>7.584269858305938</v>
       </c>
       <c r="D2">
-        <v>8.869783142047433</v>
+        <v>7.429943395163568</v>
       </c>
       <c r="E2">
-        <v>13.56659495320696</v>
+        <v>10.98040293609767</v>
       </c>
       <c r="F2">
-        <v>34.70320311954139</v>
+        <v>24.47754382871728</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.01107948678169</v>
+        <v>6.430289375887038</v>
       </c>
       <c r="K2">
-        <v>10.32542902512408</v>
+        <v>12.0798181158574</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.39428807873724</v>
+        <v>17.46701179089672</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.70408834924449</v>
+        <v>12.76055289387666</v>
       </c>
       <c r="C3">
-        <v>4.368798852750752</v>
+        <v>7.205572925689732</v>
       </c>
       <c r="D3">
-        <v>8.80282015599138</v>
+        <v>7.04518885691858</v>
       </c>
       <c r="E3">
-        <v>13.50085619410532</v>
+        <v>10.49470803862228</v>
       </c>
       <c r="F3">
-        <v>34.76823429456911</v>
+        <v>24.18886392161084</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.01825028118371</v>
+        <v>6.326385985368606</v>
       </c>
       <c r="K3">
-        <v>10.13360073497348</v>
+        <v>11.36394985236127</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.48379298427636</v>
+        <v>17.50190687897035</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.53302183520635</v>
+        <v>12.17269723475897</v>
       </c>
       <c r="C4">
-        <v>4.234880977079858</v>
+        <v>6.962604476040791</v>
       </c>
       <c r="D4">
-        <v>8.762985515714696</v>
+        <v>6.800847997101038</v>
       </c>
       <c r="E4">
-        <v>13.46316865601256</v>
+        <v>10.19099690720353</v>
       </c>
       <c r="F4">
-        <v>34.81645626696225</v>
+        <v>24.03207708193725</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.02423992581121</v>
+        <v>6.265323983507373</v>
       </c>
       <c r="K4">
-        <v>10.01547233748025</v>
+        <v>10.90104133059642</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.54431504987394</v>
+        <v>17.53874662547798</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.46296495252457</v>
+        <v>11.92496726674009</v>
       </c>
       <c r="C5">
-        <v>4.178850349714602</v>
+        <v>6.861028202182312</v>
       </c>
       <c r="D5">
-        <v>8.747089012229896</v>
+        <v>6.699354693584573</v>
       </c>
       <c r="E5">
-        <v>13.44849594336943</v>
+        <v>10.06602840846936</v>
       </c>
       <c r="F5">
-        <v>34.83818776045628</v>
+        <v>23.97323702828319</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.02708004871985</v>
+        <v>6.241139896656378</v>
       </c>
       <c r="K5">
-        <v>9.967309631941678</v>
+        <v>10.70656191112507</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.57037491010194</v>
+        <v>17.55747323911228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45131433700266</v>
+        <v>11.88333708988985</v>
       </c>
       <c r="C6">
-        <v>4.169459925273744</v>
+        <v>6.844008730262721</v>
       </c>
       <c r="D6">
-        <v>8.744470137863358</v>
+        <v>6.682389457170082</v>
       </c>
       <c r="E6">
-        <v>13.44610127941558</v>
+        <v>10.04521041997743</v>
       </c>
       <c r="F6">
-        <v>34.84192177841619</v>
+        <v>23.96376877277241</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.02757577188447</v>
+        <v>6.237166679766744</v>
       </c>
       <c r="K6">
-        <v>9.95931262181214</v>
+        <v>10.67391731676773</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.57478639622641</v>
+        <v>17.56080240404485</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.53207828158477</v>
+        <v>12.16938940926485</v>
       </c>
       <c r="C7">
-        <v>4.234131166191301</v>
+        <v>6.961244874800099</v>
       </c>
       <c r="D7">
-        <v>8.76276974915808</v>
+        <v>6.799486840082023</v>
       </c>
       <c r="E7">
-        <v>13.46296798453098</v>
+        <v>10.18931616076194</v>
       </c>
       <c r="F7">
-        <v>34.8167409275631</v>
+        <v>24.03126322432069</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.02427661166447</v>
+        <v>6.264994983528046</v>
       </c>
       <c r="K7">
-        <v>10.01482281401892</v>
+        <v>10.89844210419078</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.5446608513057</v>
+        <v>17.53898435338288</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.88515218942343</v>
+        <v>13.360022279255</v>
       </c>
       <c r="C8">
-        <v>4.50658732325091</v>
+        <v>7.455896724436742</v>
       </c>
       <c r="D8">
-        <v>8.846437222846577</v>
+        <v>7.299023461942089</v>
       </c>
       <c r="E8">
-        <v>13.54338040466983</v>
+        <v>10.81417451867881</v>
       </c>
       <c r="F8">
-        <v>34.72390216692646</v>
+        <v>24.37370764777859</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.01322285175264</v>
+        <v>6.393903064203163</v>
       </c>
       <c r="K8">
-        <v>10.2593952362434</v>
+        <v>11.83785144811889</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.42399248533849</v>
+        <v>17.47574659569719</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55894305067969</v>
+        <v>15.44020996808297</v>
       </c>
       <c r="C9">
-        <v>4.991776519014727</v>
+        <v>8.340927712672539</v>
       </c>
       <c r="D9">
-        <v>9.020017839317889</v>
+        <v>8.210327168631885</v>
       </c>
       <c r="E9">
-        <v>13.72172295503238</v>
+        <v>11.98933820240206</v>
       </c>
       <c r="F9">
-        <v>34.60782430427083</v>
+        <v>25.21110830993221</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.00412055979884</v>
+        <v>6.667843772172749</v>
       </c>
       <c r="K9">
-        <v>10.73359960016869</v>
+        <v>13.49390457795538</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.2316507821346</v>
+        <v>17.48134141466598</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.037225413228</v>
+        <v>16.81629179007499</v>
       </c>
       <c r="C10">
-        <v>5.316523339521912</v>
+        <v>8.937349326939598</v>
       </c>
       <c r="D10">
-        <v>9.152438314685581</v>
+        <v>8.83409508954043</v>
       </c>
       <c r="E10">
-        <v>13.8645071032623</v>
+        <v>12.81491313163635</v>
       </c>
       <c r="F10">
-        <v>34.56297518525527</v>
+        <v>25.93136263346245</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.00507235230148</v>
+        <v>6.88124315373671</v>
       </c>
       <c r="K10">
-        <v>11.07527318183087</v>
+        <v>14.59701228137769</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.11750666208536</v>
+        <v>17.57449204516498</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.25014878960479</v>
+        <v>17.40995559794387</v>
       </c>
       <c r="C11">
-        <v>5.457093768452129</v>
+        <v>9.196758819823989</v>
       </c>
       <c r="D11">
-        <v>9.213542207880634</v>
+        <v>9.107353956837876</v>
       </c>
       <c r="E11">
-        <v>13.93182211561501</v>
+        <v>13.18117724423658</v>
       </c>
       <c r="F11">
-        <v>34.55138281419055</v>
+        <v>26.28243786682083</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.00715630411983</v>
+        <v>6.980799859012289</v>
       </c>
       <c r="K11">
-        <v>11.2285694728995</v>
+        <v>15.07435280543647</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.07151366382443</v>
+        <v>17.63834910113764</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.3300322629439</v>
+        <v>17.63017295340144</v>
       </c>
       <c r="C12">
-        <v>5.509276886782404</v>
+        <v>9.293268614842534</v>
       </c>
       <c r="D12">
-        <v>9.236787980637825</v>
+        <v>9.20928909141179</v>
       </c>
       <c r="E12">
-        <v>13.9576348305933</v>
+        <v>13.31846899138697</v>
       </c>
       <c r="F12">
-        <v>34.5482611396055</v>
+        <v>26.41878695073274</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.0081819625426</v>
+        <v>7.018843445674861</v>
       </c>
       <c r="K12">
-        <v>11.28625910274017</v>
+        <v>15.25161403977902</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.05495299210211</v>
+        <v>17.66579393063257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.31286226897021</v>
+        <v>17.58294840714471</v>
       </c>
       <c r="C13">
-        <v>5.498085179962248</v>
+        <v>9.272560235737689</v>
       </c>
       <c r="D13">
-        <v>9.231777103428124</v>
+        <v>9.187404528560585</v>
       </c>
       <c r="E13">
-        <v>13.95206156713823</v>
+        <v>13.28896412169472</v>
       </c>
       <c r="F13">
-        <v>34.54887703675725</v>
+        <v>26.38926980161925</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.00795056534106</v>
+        <v>7.010634988054837</v>
       </c>
       <c r="K13">
-        <v>11.27385145784387</v>
+        <v>15.21359279215195</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.05848151872936</v>
+        <v>17.65973528933892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.25673622195451</v>
+        <v>17.42816466647973</v>
       </c>
       <c r="C14">
-        <v>5.461407999152757</v>
+        <v>9.204733308144744</v>
       </c>
       <c r="D14">
-        <v>9.215452605751917</v>
+        <v>9.115771276667436</v>
       </c>
       <c r="E14">
-        <v>13.93393939324815</v>
+        <v>13.19250079525833</v>
       </c>
       <c r="F14">
-        <v>34.55110057289723</v>
+        <v>26.29358696943905</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.00723595119382</v>
+        <v>6.983922910665333</v>
       </c>
       <c r="K14">
-        <v>11.23332315209599</v>
+        <v>15.08900613820401</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.0701340381279</v>
+        <v>17.64054060438323</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22225806195774</v>
+        <v>17.33275913425632</v>
       </c>
       <c r="C15">
-        <v>5.438805216172379</v>
+        <v>9.162962767377005</v>
       </c>
       <c r="D15">
-        <v>9.205466804740499</v>
+        <v>9.071692229955284</v>
       </c>
       <c r="E15">
-        <v>13.92288043680682</v>
+        <v>13.13322959174032</v>
       </c>
       <c r="F15">
-        <v>34.55262772224293</v>
+        <v>26.23542281364253</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.00682900141019</v>
+        <v>6.967605378897655</v>
       </c>
       <c r="K15">
-        <v>11.20844992506696</v>
+        <v>15.01223851629864</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.07738308741193</v>
+        <v>17.62921346393032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.0232100447516</v>
+        <v>16.77684891558013</v>
       </c>
       <c r="C16">
-        <v>5.30719102526494</v>
+        <v>8.920155644820458</v>
       </c>
       <c r="D16">
-        <v>9.14846095946962</v>
+        <v>8.816022723900838</v>
       </c>
       <c r="E16">
-        <v>13.86015393903856</v>
+        <v>12.79078366931559</v>
       </c>
       <c r="F16">
-        <v>34.56391017506315</v>
+        <v>25.90889363461002</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.00496930909482</v>
+        <v>6.874785653321753</v>
       </c>
       <c r="K16">
-        <v>11.06520733722177</v>
+        <v>14.56532624761858</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.12063202522345</v>
+        <v>17.57076606210106</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.89985253210397</v>
+        <v>16.42757752326547</v>
       </c>
       <c r="C17">
-        <v>5.224602246393304</v>
+        <v>8.768142056042945</v>
       </c>
       <c r="D17">
-        <v>9.113698993602139</v>
+        <v>8.65646265251914</v>
       </c>
       <c r="E17">
-        <v>13.82226580654819</v>
+        <v>12.5782696803206</v>
       </c>
       <c r="F17">
-        <v>34.57308913077942</v>
+        <v>25.71460611522756</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.00425070300993</v>
+        <v>6.818469332474056</v>
       </c>
       <c r="K17">
-        <v>10.97674728151456</v>
+        <v>14.28490598682015</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.14868521062036</v>
+        <v>17.54053720706651</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.82846711632178</v>
+        <v>16.22363985630275</v>
       </c>
       <c r="C18">
-        <v>5.176426432950381</v>
+        <v>8.679587434081668</v>
       </c>
       <c r="D18">
-        <v>9.09378731014627</v>
+        <v>8.56370117701467</v>
       </c>
       <c r="E18">
-        <v>13.80069695207801</v>
+        <v>12.45516535011093</v>
       </c>
       <c r="F18">
-        <v>34.57919780809898</v>
+        <v>25.60506053505753</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.00399283892415</v>
+        <v>6.786311842841474</v>
       </c>
       <c r="K18">
-        <v>10.92566967905809</v>
+        <v>14.12131082269502</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.16537881760961</v>
+        <v>17.52516204432727</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.80422526160304</v>
+        <v>16.15406520223511</v>
       </c>
       <c r="C19">
-        <v>5.159999973854896</v>
+        <v>8.649412370898144</v>
       </c>
       <c r="D19">
-        <v>9.087060249333504</v>
+        <v>8.532125436561365</v>
       </c>
       <c r="E19">
-        <v>13.79343300536564</v>
+        <v>12.41333695292538</v>
       </c>
       <c r="F19">
-        <v>34.58140846291377</v>
+        <v>25.56834755655252</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.00393225617863</v>
+        <v>6.775464506529412</v>
       </c>
       <c r="K19">
-        <v>10.9083434060717</v>
+        <v>14.06552391494371</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.17112675967799</v>
+        <v>17.52029644548195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.91302959003662</v>
+        <v>16.46507289979295</v>
       </c>
       <c r="C20">
-        <v>5.233463753594438</v>
+        <v>8.784440222448668</v>
       </c>
       <c r="D20">
-        <v>9.117391053266161</v>
+        <v>8.673550489751907</v>
       </c>
       <c r="E20">
-        <v>13.82627606815958</v>
+        <v>12.60098294493662</v>
       </c>
       <c r="F20">
-        <v>34.57202618599936</v>
+        <v>25.73506002915977</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.00431111653227</v>
+        <v>6.824440164139846</v>
       </c>
       <c r="K20">
-        <v>10.98618486673841</v>
+        <v>14.31499561241587</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.14564111258044</v>
+        <v>17.54354565104734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.27324263295798</v>
+        <v>17.47375250627873</v>
       </c>
       <c r="C21">
-        <v>5.472209544859717</v>
+        <v>9.224702535350922</v>
       </c>
       <c r="D21">
-        <v>9.220244739705722</v>
+        <v>9.136853758485278</v>
       </c>
       <c r="E21">
-        <v>13.93925371987458</v>
+        <v>13.22087298651451</v>
       </c>
       <c r="F21">
-        <v>34.55041304412718</v>
+        <v>26.32159867893555</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.00743943960367</v>
+        <v>6.991759666297859</v>
       </c>
       <c r="K21">
-        <v>11.24523749045779</v>
+        <v>15.12569496992648</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.0666881598994</v>
+        <v>17.64608859526524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.50428313048744</v>
+        <v>18.10625640331783</v>
       </c>
       <c r="C22">
-        <v>5.622129781166314</v>
+        <v>9.502396230800327</v>
       </c>
       <c r="D22">
-        <v>9.28808147557557</v>
+        <v>9.430652952220139</v>
       </c>
       <c r="E22">
-        <v>14.01495934151364</v>
+        <v>13.61780085590412</v>
       </c>
       <c r="F22">
-        <v>34.54367912882081</v>
+        <v>26.72479350138334</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.01086204487711</v>
+        <v>7.103110600978627</v>
       </c>
       <c r="K22">
-        <v>11.41242021566396</v>
+        <v>15.63516367241508</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.02007781464023</v>
+        <v>17.7322084332283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.38139709567189</v>
+        <v>17.77110280164487</v>
       </c>
       <c r="C23">
-        <v>5.542679194561058</v>
+        <v>9.355106748734041</v>
       </c>
       <c r="D23">
-        <v>9.251825127710902</v>
+        <v>9.274678067913889</v>
       </c>
       <c r="E23">
-        <v>13.9743888532049</v>
+        <v>13.40672185673204</v>
       </c>
       <c r="F23">
-        <v>34.54659660205275</v>
+        <v>26.50777315806716</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.00890957091051</v>
+        <v>7.043501611238917</v>
       </c>
       <c r="K23">
-        <v>11.32340286451761</v>
+        <v>15.3651057535666</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.04449712345189</v>
+        <v>17.68443964354966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.90707368624257</v>
+        <v>16.44813101511301</v>
       </c>
       <c r="C24">
-        <v>5.229459627760251</v>
+        <v>8.777075433607081</v>
       </c>
       <c r="D24">
-        <v>9.115721643046896</v>
+        <v>8.665828278757225</v>
       </c>
       <c r="E24">
-        <v>13.82446236242038</v>
+        <v>12.5907171606871</v>
       </c>
       <c r="F24">
-        <v>34.5725041531117</v>
+        <v>25.72580611158636</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.00428331985615</v>
+        <v>6.821740066398223</v>
       </c>
       <c r="K24">
-        <v>10.9819188178917</v>
+        <v>14.30139950060117</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.1470155881249</v>
+        <v>17.54217930534083</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.37923818799953</v>
+        <v>14.90442590234342</v>
       </c>
       <c r="C25">
-        <v>4.865981748179006</v>
+        <v>8.110845914965674</v>
       </c>
       <c r="D25">
-        <v>8.972133776867185</v>
+        <v>7.971593937538287</v>
       </c>
       <c r="E25">
-        <v>13.67134847090455</v>
+        <v>11.67762666515428</v>
       </c>
       <c r="F25">
-        <v>34.63213843618747</v>
+        <v>24.96636243269307</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.00523908326161</v>
+        <v>6.591548451189369</v>
       </c>
       <c r="K25">
-        <v>10.60625606057951</v>
+        <v>13.06587699524767</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.27892499449919</v>
+        <v>17.46491829098867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.66528670649952</v>
+        <v>12.7848976853393</v>
       </c>
       <c r="C2">
-        <v>7.584269858305938</v>
+        <v>8.321704890646307</v>
       </c>
       <c r="D2">
-        <v>7.429943395163568</v>
+        <v>7.983905153740188</v>
       </c>
       <c r="E2">
-        <v>10.98040293609767</v>
+        <v>11.87015136218073</v>
       </c>
       <c r="F2">
-        <v>24.47754382871728</v>
+        <v>23.8151412446459</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>1.909620419619544</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.799159424195306</v>
       </c>
       <c r="J2">
-        <v>6.430289375887038</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>12.0798181158574</v>
+        <v>14.95858823190814</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.055344594624706</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.67279370753924</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46701179089672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.76528806006641</v>
+      </c>
+      <c r="Q2">
+        <v>16.67189134598003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76055289387666</v>
+        <v>11.94825379675432</v>
       </c>
       <c r="C3">
-        <v>7.205572925689732</v>
+        <v>7.810592026223798</v>
       </c>
       <c r="D3">
-        <v>7.04518885691858</v>
+        <v>7.578482172110254</v>
       </c>
       <c r="E3">
-        <v>10.49470803862228</v>
+        <v>11.30327236046698</v>
       </c>
       <c r="F3">
-        <v>24.18886392161084</v>
+        <v>23.36753960683638</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.120742785137348</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.937010163684282</v>
       </c>
       <c r="J3">
-        <v>6.326385985368606</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>11.36394985236127</v>
+        <v>15.00197131348748</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.852999232603055</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.96580283155361</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.50190687897035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.89970869198168</v>
+      </c>
+      <c r="Q3">
+        <v>16.57924413275057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17269723475897</v>
+        <v>11.40109567174693</v>
       </c>
       <c r="C4">
-        <v>6.962604476040791</v>
+        <v>7.482970956099126</v>
       </c>
       <c r="D4">
-        <v>6.800847997101038</v>
+        <v>7.319548259331432</v>
       </c>
       <c r="E4">
-        <v>10.19099690720353</v>
+        <v>10.94062343358893</v>
       </c>
       <c r="F4">
-        <v>24.03207708193725</v>
+        <v>23.09489813314165</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.255393177466984</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.025640096011474</v>
       </c>
       <c r="J4">
-        <v>6.265323983507373</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.90104133059642</v>
+        <v>15.03207905195141</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.724994698269549</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.50705412045544</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.53874662547798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.98388754293626</v>
+      </c>
+      <c r="Q4">
+        <v>16.52730640031659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92496726674009</v>
+        <v>11.16448557941491</v>
       </c>
       <c r="C5">
-        <v>6.861028202182312</v>
+        <v>7.354959135929018</v>
       </c>
       <c r="D5">
-        <v>6.699354693584573</v>
+        <v>7.213387021595093</v>
       </c>
       <c r="E5">
-        <v>10.06602840846936</v>
+        <v>10.7899370641514</v>
       </c>
       <c r="F5">
-        <v>23.97323702828319</v>
+        <v>22.97810415234706</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.311751154722003</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.065625928607534</v>
       </c>
       <c r="J5">
-        <v>6.241139896656378</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.70656191112507</v>
+        <v>15.04063122790929</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.671664590343836</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.31373916554351</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.55747323911228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.0183346831133</v>
+      </c>
+      <c r="Q5">
+        <v>16.50280999025129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88333708988985</v>
+        <v>11.11833100874712</v>
       </c>
       <c r="C6">
-        <v>6.844008730262721</v>
+        <v>7.344438875838442</v>
       </c>
       <c r="D6">
-        <v>6.682389457170082</v>
+        <v>7.197788941462304</v>
       </c>
       <c r="E6">
-        <v>10.04521041997743</v>
+        <v>10.76549459563434</v>
       </c>
       <c r="F6">
-        <v>23.96376877277241</v>
+        <v>22.95099428494601</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.321442347946759</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.076005338459794</v>
       </c>
       <c r="J6">
-        <v>6.237166679766744</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.67391731676773</v>
+        <v>15.03652052117234</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.662437512029857</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.28101737210767</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.56080240404485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.02374562366026</v>
+      </c>
+      <c r="Q6">
+        <v>16.49324339200965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16938940926485</v>
+        <v>11.38099731085558</v>
       </c>
       <c r="C7">
-        <v>6.961244874800099</v>
+        <v>7.510472896622606</v>
       </c>
       <c r="D7">
-        <v>6.799486840082023</v>
+        <v>7.323951097098353</v>
       </c>
       <c r="E7">
-        <v>10.18931616076194</v>
+        <v>10.94072940283373</v>
       </c>
       <c r="F7">
-        <v>24.03126322432069</v>
+        <v>23.07227998171204</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.256833793617906</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.035908036186581</v>
       </c>
       <c r="J7">
-        <v>6.264994983528046</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.89844210419078</v>
+        <v>15.01696045684161</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.723424263886733</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.50380125716357</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.53898435338288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.98348995331121</v>
+      </c>
+      <c r="Q7">
+        <v>16.51180019070092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.360022279255</v>
+        <v>12.4826602194232</v>
       </c>
       <c r="C8">
-        <v>7.455896724436742</v>
+        <v>8.184183993480667</v>
       </c>
       <c r="D8">
-        <v>7.299023461942089</v>
+        <v>7.853476226560906</v>
       </c>
       <c r="E8">
-        <v>10.81417451867881</v>
+        <v>11.6804522530945</v>
       </c>
       <c r="F8">
-        <v>24.37370764777859</v>
+        <v>23.63329388096218</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>1.982239094070661</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.8583350787087</v>
       </c>
       <c r="J8">
-        <v>6.393903064203163</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.83785144811889</v>
+        <v>14.95274370278445</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.985309491453341</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.43332883877827</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.47574659569719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.81039796600575</v>
+      </c>
+      <c r="Q8">
+        <v>16.61907546141195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.44020996808297</v>
+        <v>14.40590059985652</v>
       </c>
       <c r="C9">
-        <v>8.340927712672539</v>
+        <v>9.34852881494923</v>
       </c>
       <c r="D9">
-        <v>8.210327168631885</v>
+        <v>8.799604802103129</v>
       </c>
       <c r="E9">
-        <v>11.98933820240206</v>
+        <v>13.00759895404758</v>
       </c>
       <c r="F9">
-        <v>25.21110830993221</v>
+        <v>24.78275003273495</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.637466976358939</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.525468775463866</v>
       </c>
       <c r="J9">
-        <v>6.667843772172749</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>13.49390457795538</v>
+        <v>14.88253309927382</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.46886785118279</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.06073994698299</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.48134141466598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.48476482586505</v>
+      </c>
+      <c r="Q9">
+        <v>16.89626417192232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.81629179007499</v>
+        <v>15.63047228050506</v>
       </c>
       <c r="C10">
-        <v>8.937349326939598</v>
+        <v>10.10777523986967</v>
       </c>
       <c r="D10">
-        <v>8.83409508954043</v>
+        <v>9.345121838868732</v>
       </c>
       <c r="E10">
-        <v>12.81491313163635</v>
+        <v>13.67287633287341</v>
       </c>
       <c r="F10">
-        <v>25.93136263346245</v>
+        <v>25.46404771255904</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.962830606334572</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.654492979781476</v>
       </c>
       <c r="J10">
-        <v>6.88124315373671</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>14.59701228137769</v>
+        <v>14.79811409230524</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.693135574073513</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.1075943576124</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.57449204516498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.25359511299853</v>
+      </c>
+      <c r="Q10">
+        <v>17.04824503715673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.40995559794387</v>
+        <v>15.93983918389328</v>
       </c>
       <c r="C11">
-        <v>9.196758819823989</v>
+        <v>10.12857457526549</v>
       </c>
       <c r="D11">
-        <v>9.107353956837876</v>
+        <v>8.749263897143098</v>
       </c>
       <c r="E11">
-        <v>13.18117724423658</v>
+        <v>11.98930452953232</v>
       </c>
       <c r="F11">
-        <v>26.28243786682083</v>
+        <v>24.397882317931</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.846040258985818</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.721959550828994</v>
       </c>
       <c r="J11">
-        <v>6.980799859012289</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>15.07435280543647</v>
+        <v>14.35762796681053</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.896352581226529</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.31627399284928</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.63834910113764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.16856760813662</v>
+      </c>
+      <c r="Q11">
+        <v>16.49331611426236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.63017295340144</v>
+        <v>15.97204165487774</v>
       </c>
       <c r="C12">
-        <v>9.293268614842534</v>
+        <v>9.955745434768959</v>
       </c>
       <c r="D12">
-        <v>9.20928909141179</v>
+        <v>8.119674044595966</v>
       </c>
       <c r="E12">
-        <v>13.31846899138697</v>
+        <v>10.4607478125785</v>
       </c>
       <c r="F12">
-        <v>26.41878695073274</v>
+        <v>23.37046774499866</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.118102447625198</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.729828666258082</v>
       </c>
       <c r="J12">
-        <v>7.018843445674861</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>15.25161403977902</v>
+        <v>14.02617485937388</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.26015669743141</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.27971174969421</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.66579393063257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.15590853940976</v>
+      </c>
+      <c r="Q12">
+        <v>16.00768708812027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.58294840714471</v>
+        <v>15.77490509826902</v>
       </c>
       <c r="C13">
-        <v>9.272560235737689</v>
+        <v>9.652778089894399</v>
       </c>
       <c r="D13">
-        <v>9.187404528560585</v>
+        <v>7.41676362364452</v>
       </c>
       <c r="E13">
-        <v>13.28896412169472</v>
+        <v>8.952735150122752</v>
       </c>
       <c r="F13">
-        <v>26.38926980161925</v>
+        <v>22.27002101821746</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.451073025488338</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.697899496477719</v>
       </c>
       <c r="J13">
-        <v>7.010634988054837</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.21359279215195</v>
+        <v>13.73591401151548</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.728663324633912</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.05085393392751</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.65973528933892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.19467115635558</v>
+      </c>
+      <c r="Q13">
+        <v>15.52145193032056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.42816466647973</v>
+        <v>15.52660838429449</v>
       </c>
       <c r="C14">
-        <v>9.204733308144744</v>
+        <v>9.384725660811373</v>
       </c>
       <c r="D14">
-        <v>9.115771276667436</v>
+        <v>6.885669803430998</v>
       </c>
       <c r="E14">
-        <v>13.19250079525833</v>
+        <v>7.93087777204221</v>
       </c>
       <c r="F14">
-        <v>26.29358696943905</v>
+        <v>21.460563585408</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.467419207764983</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.659019594476498</v>
       </c>
       <c r="J14">
-        <v>6.983922910665333</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>15.08900613820401</v>
+        <v>13.54993201425153</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.437173146353332</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.80063039687882</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.64054060438323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.24527736872389</v>
+      </c>
+      <c r="Q14">
+        <v>15.1784991170099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.33275913425632</v>
+        <v>15.4108276064839</v>
       </c>
       <c r="C15">
-        <v>9.162962767377005</v>
+        <v>9.299111609205223</v>
       </c>
       <c r="D15">
-        <v>9.071692229955284</v>
+        <v>6.74151321558947</v>
       </c>
       <c r="E15">
-        <v>13.13322959174032</v>
+        <v>7.683771697224602</v>
       </c>
       <c r="F15">
-        <v>26.23542281364253</v>
+        <v>21.2430953251742</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.706328145482036</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.642566753865049</v>
       </c>
       <c r="J15">
-        <v>6.967605378897655</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>15.01223851629864</v>
+        <v>13.50913902945307</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.377667092609141</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.69727761823174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.62921346393032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.26737803397886</v>
+      </c>
+      <c r="Q15">
+        <v>15.09132080754874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.77684891558013</v>
+        <v>14.92812535652989</v>
       </c>
       <c r="C16">
-        <v>8.920155644820458</v>
+        <v>9.039607176254112</v>
       </c>
       <c r="D16">
-        <v>8.816022723900838</v>
+        <v>6.61364358781982</v>
       </c>
       <c r="E16">
-        <v>12.79078366931559</v>
+        <v>7.62811405156353</v>
       </c>
       <c r="F16">
-        <v>25.90889363461002</v>
+        <v>21.13899346740616</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.49619853935435</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.558553626085484</v>
       </c>
       <c r="J16">
-        <v>6.874785653321753</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>14.56532624761858</v>
+        <v>13.59678151994704</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.373847788297549</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.29839264938706</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.57076606210106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.35015078257902</v>
+      </c>
+      <c r="Q16">
+        <v>15.11201431460147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.42757752326547</v>
+        <v>14.68760293749514</v>
       </c>
       <c r="C17">
-        <v>8.768142056042945</v>
+        <v>8.987589195060604</v>
       </c>
       <c r="D17">
-        <v>8.65646265251914</v>
+        <v>6.808711748611277</v>
       </c>
       <c r="E17">
-        <v>12.5782696803206</v>
+        <v>8.126093932337994</v>
       </c>
       <c r="F17">
-        <v>25.71460611522756</v>
+        <v>21.49450587664929</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.753356010950444</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.514835092818397</v>
       </c>
       <c r="J17">
-        <v>6.818469332474056</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>14.28490598682015</v>
+        <v>13.76141824909227</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.510628498267958</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.12544922060275</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.54053720706651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.38790175754832</v>
+      </c>
+      <c r="Q17">
+        <v>15.31057484948288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22363985630275</v>
+        <v>14.64790500084622</v>
       </c>
       <c r="C18">
-        <v>8.679587434081668</v>
+        <v>9.093626778177958</v>
       </c>
       <c r="D18">
-        <v>8.56370117701467</v>
+        <v>7.303282864342921</v>
       </c>
       <c r="E18">
-        <v>12.45516535011093</v>
+        <v>9.234287508313839</v>
       </c>
       <c r="F18">
-        <v>25.60506053505753</v>
+        <v>22.3010550477297</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.484620610486014</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.50584659862987</v>
       </c>
       <c r="J18">
-        <v>6.786311842841474</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>14.12131082269502</v>
+        <v>14.02344301610336</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.866394293091262</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.13447768588663</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.52516204432727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.39479492936285</v>
+      </c>
+      <c r="Q18">
+        <v>15.694642088342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.15406520223511</v>
+        <v>14.74887383809885</v>
       </c>
       <c r="C19">
-        <v>8.649412370898144</v>
+        <v>9.362380825740097</v>
       </c>
       <c r="D19">
-        <v>8.532125436561365</v>
+        <v>8.006324676556813</v>
       </c>
       <c r="E19">
-        <v>12.41333695292538</v>
+        <v>10.81702200529567</v>
       </c>
       <c r="F19">
-        <v>25.56834755655252</v>
+        <v>23.37909437983969</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>2.960298795455307</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.514973618907225</v>
       </c>
       <c r="J19">
-        <v>6.775464506529412</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>14.06552391494371</v>
+        <v>14.32488689548442</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.467239272754919</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.28911020389469</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.52029644548195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.38366668981425</v>
+      </c>
+      <c r="Q19">
+        <v>16.17655473751267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46507289979295</v>
+        <v>15.2775641181621</v>
       </c>
       <c r="C20">
-        <v>8.784440222448668</v>
+        <v>9.981794046761605</v>
       </c>
       <c r="D20">
-        <v>8.673550489751907</v>
+        <v>9.215048674551632</v>
       </c>
       <c r="E20">
-        <v>12.60098294493662</v>
+        <v>13.49673748232583</v>
       </c>
       <c r="F20">
-        <v>25.73506002915977</v>
+        <v>25.2186964187984</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.875052895548321</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.609942313909152</v>
       </c>
       <c r="J20">
-        <v>6.824440164139846</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>14.31499561241587</v>
+        <v>14.77049023483744</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.628080610583051</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.83761774913058</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.54354565104734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.3129731827627</v>
+      </c>
+      <c r="Q20">
+        <v>16.95852624960224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.47375250627873</v>
+        <v>16.21414903220502</v>
       </c>
       <c r="C21">
-        <v>9.224702535350922</v>
+        <v>10.58716062987565</v>
       </c>
       <c r="D21">
-        <v>9.136853758485278</v>
+        <v>9.76459765217739</v>
       </c>
       <c r="E21">
-        <v>13.22087298651451</v>
+        <v>14.34352442931967</v>
       </c>
       <c r="F21">
-        <v>26.32159867893555</v>
+        <v>25.99670222786064</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.136862643924411</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.779374901019472</v>
       </c>
       <c r="J21">
-        <v>6.991759666297859</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>15.12569496992648</v>
+        <v>14.79104432663577</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.964130231559466</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.64744317863305</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.64608859526524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.13675528169746</v>
+      </c>
+      <c r="Q21">
+        <v>17.20217328274795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.10625640331783</v>
+        <v>16.80142874561429</v>
       </c>
       <c r="C22">
-        <v>9.502396230800327</v>
+        <v>10.92298222366909</v>
       </c>
       <c r="D22">
-        <v>9.430652952220139</v>
+        <v>10.05710752713421</v>
       </c>
       <c r="E22">
-        <v>13.61780085590412</v>
+        <v>14.75949260042284</v>
       </c>
       <c r="F22">
-        <v>26.72479350138334</v>
+        <v>26.44758983140402</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.298291747303818</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.881455813791764</v>
       </c>
       <c r="J22">
-        <v>7.103110600978627</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>15.63516367241508</v>
+        <v>14.80511946939164</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.123972432826388</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.14095720392681</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.7322084332283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.02338341748918</v>
+      </c>
+      <c r="Q22">
+        <v>17.34881376426193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.77110280164487</v>
+        <v>16.50502216801302</v>
       </c>
       <c r="C23">
-        <v>9.355106748734041</v>
+        <v>10.71960543187951</v>
       </c>
       <c r="D23">
-        <v>9.274678067913889</v>
+        <v>9.896726036466298</v>
       </c>
       <c r="E23">
-        <v>13.40672185673204</v>
+        <v>14.5368670098711</v>
       </c>
       <c r="F23">
-        <v>26.50777315806716</v>
+        <v>26.22879608796221</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.213098038341825</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.822434689644076</v>
       </c>
       <c r="J23">
-        <v>7.043501611238917</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>15.3651057535666</v>
+        <v>14.8148046608968</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.039851378086755</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.88015079243169</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.68443964354966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.08398170414945</v>
+      </c>
+      <c r="Q23">
+        <v>17.28683958262165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.44813101511301</v>
+        <v>15.30377329801559</v>
       </c>
       <c r="C24">
-        <v>8.777075433607081</v>
+        <v>9.963078488559852</v>
       </c>
       <c r="D24">
-        <v>8.665828278757225</v>
+        <v>9.276167437831148</v>
       </c>
       <c r="E24">
-        <v>12.5907171606871</v>
+        <v>13.66676411719358</v>
       </c>
       <c r="F24">
-        <v>25.72580611158636</v>
+        <v>25.3646585523346</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.881985341488502</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.602373867516743</v>
       </c>
       <c r="J24">
-        <v>6.821740066398223</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>14.30139950060117</v>
+        <v>14.83238735926684</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.711546661721576</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.84774672791116</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.54217930534083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.31558660798852</v>
+      </c>
+      <c r="Q24">
+        <v>17.03632660277096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90442590234342</v>
+        <v>13.88818132165157</v>
       </c>
       <c r="C25">
-        <v>8.110845914965674</v>
+        <v>9.089748669955821</v>
       </c>
       <c r="D25">
-        <v>7.971593937538287</v>
+        <v>8.561998807960796</v>
       </c>
       <c r="E25">
-        <v>11.67762666515428</v>
+        <v>12.66532035920427</v>
       </c>
       <c r="F25">
-        <v>24.96636243269307</v>
+        <v>24.43538377822283</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.614151790582476</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.630530555483586</v>
       </c>
       <c r="J25">
-        <v>6.591548451189369</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>13.06587699524767</v>
+        <v>14.87107932362699</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.340258372649902</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.64055806508775</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.46491829098867</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.57072814833313</v>
+      </c>
+      <c r="Q25">
+        <v>16.79028289853945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7848976853393</v>
+        <v>12.58415310347622</v>
       </c>
       <c r="C2">
-        <v>8.321704890646307</v>
+        <v>8.662821138068857</v>
       </c>
       <c r="D2">
-        <v>7.983905153740188</v>
+        <v>8.124007058392108</v>
       </c>
       <c r="E2">
-        <v>11.87015136218073</v>
+        <v>11.96591537491209</v>
       </c>
       <c r="F2">
-        <v>23.8151412446459</v>
+        <v>23.29221586585419</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.909620419619544</v>
+        <v>1.854233169684724</v>
       </c>
       <c r="I2">
-        <v>2.799159424195306</v>
+        <v>2.683211057592609</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.95858823190814</v>
+        <v>14.40136322291555</v>
       </c>
       <c r="L2">
-        <v>7.055344594624706</v>
+        <v>12.17743448307362</v>
       </c>
       <c r="M2">
-        <v>11.67279370753924</v>
+        <v>9.130335510927843</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.069710843006705</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.69214270389341</v>
       </c>
       <c r="P2">
-        <v>12.76528806006641</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.67189134598003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.64044650134702</v>
+      </c>
+      <c r="S2">
+        <v>16.22510677495718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94825379675432</v>
+        <v>11.79793008646613</v>
       </c>
       <c r="C3">
-        <v>7.810592026223798</v>
+        <v>8.059717655727155</v>
       </c>
       <c r="D3">
-        <v>7.578482172110254</v>
+        <v>7.707874893233732</v>
       </c>
       <c r="E3">
-        <v>11.30327236046698</v>
+        <v>11.39921406958049</v>
       </c>
       <c r="F3">
-        <v>23.36753960683638</v>
+        <v>22.89377265752941</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.120742785137348</v>
+        <v>2.058820233389274</v>
       </c>
       <c r="I3">
-        <v>2.937010163684282</v>
+        <v>2.80713207593053</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.00197131348748</v>
+        <v>14.4735165918261</v>
       </c>
       <c r="L3">
-        <v>6.852999232603055</v>
+        <v>12.31628599151288</v>
       </c>
       <c r="M3">
-        <v>10.96580283155361</v>
+        <v>9.123221050034068</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.872306436047775</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.98928793384374</v>
       </c>
       <c r="P3">
-        <v>12.89970869198168</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.57924413275057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.76610718308683</v>
+      </c>
+      <c r="S3">
+        <v>16.16667426094727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.40109567174693</v>
+        <v>11.28381159792383</v>
       </c>
       <c r="C4">
-        <v>7.482970956099126</v>
+        <v>7.671908234498519</v>
       </c>
       <c r="D4">
-        <v>7.319548259331432</v>
+        <v>7.442323091737572</v>
       </c>
       <c r="E4">
-        <v>10.94062343358893</v>
+        <v>11.03695341601908</v>
       </c>
       <c r="F4">
-        <v>23.09489813314165</v>
+        <v>22.65090995371161</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.255393177466984</v>
+        <v>2.18934336120543</v>
       </c>
       <c r="I4">
-        <v>3.025640096011474</v>
+        <v>2.887139604781884</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.03207905195141</v>
+        <v>14.52026661398171</v>
       </c>
       <c r="L4">
-        <v>6.724994698269549</v>
+        <v>12.40318901152953</v>
       </c>
       <c r="M4">
-        <v>10.50705412045544</v>
+        <v>9.136980600033096</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.747485764131138</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.53325627051898</v>
       </c>
       <c r="P4">
-        <v>12.98388754293626</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.52730640031659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.84513973226421</v>
+      </c>
+      <c r="S4">
+        <v>16.13501775290728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16448557941491</v>
+        <v>11.06126857260598</v>
       </c>
       <c r="C5">
-        <v>7.354959135929018</v>
+        <v>7.518764100210963</v>
       </c>
       <c r="D5">
-        <v>7.213387021595093</v>
+        <v>7.333453400342506</v>
       </c>
       <c r="E5">
-        <v>10.7899370641514</v>
+        <v>10.88649938914946</v>
       </c>
       <c r="F5">
-        <v>22.97810415234706</v>
+        <v>22.5461589628325</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.311751154722003</v>
+        <v>2.243985516926358</v>
       </c>
       <c r="I5">
-        <v>3.065625928607534</v>
+        <v>2.924106708153453</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.04063122790929</v>
+        <v>14.5354835478526</v>
       </c>
       <c r="L5">
-        <v>6.671664590343836</v>
+        <v>12.43479211804992</v>
       </c>
       <c r="M5">
-        <v>10.31373916554351</v>
+        <v>9.144713253820479</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.695493231861987</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.34109946951918</v>
       </c>
       <c r="P5">
-        <v>13.0183346831133</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.50280999025129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.8776300704026</v>
+      </c>
+      <c r="S5">
+        <v>16.11864935668128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11833100874712</v>
+        <v>11.01756519131827</v>
       </c>
       <c r="C6">
-        <v>7.344438875838442</v>
+        <v>7.504423784200888</v>
       </c>
       <c r="D6">
-        <v>7.197788941462304</v>
+        <v>7.317391011711519</v>
       </c>
       <c r="E6">
-        <v>10.76549459563434</v>
+        <v>10.86209599141783</v>
       </c>
       <c r="F6">
-        <v>22.95099428494601</v>
+        <v>22.52108707205707</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.321442347946759</v>
+        <v>2.253384801955209</v>
       </c>
       <c r="I6">
-        <v>3.076005338459794</v>
+        <v>2.934661379070232</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.03652052117234</v>
+        <v>14.53263217734926</v>
       </c>
       <c r="L6">
-        <v>6.662437512029857</v>
+        <v>12.43490614333393</v>
       </c>
       <c r="M6">
-        <v>10.28101737210767</v>
+        <v>9.143316589207823</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.686494289222466</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.30857534539924</v>
       </c>
       <c r="P6">
-        <v>13.02374562366026</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.49324339200965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.88282477187741</v>
+      </c>
+      <c r="S6">
+        <v>16.11048731364137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.38099731085558</v>
+        <v>11.26411473191829</v>
       </c>
       <c r="C7">
-        <v>7.510472896622606</v>
+        <v>7.700134661641632</v>
       </c>
       <c r="D7">
-        <v>7.323951097098353</v>
+        <v>7.446651350880209</v>
       </c>
       <c r="E7">
-        <v>10.94072940283373</v>
+        <v>11.03705144640444</v>
       </c>
       <c r="F7">
-        <v>23.07227998171204</v>
+        <v>22.62859574703664</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.256833793617906</v>
+        <v>2.190746399645941</v>
       </c>
       <c r="I7">
-        <v>3.035908036186581</v>
+        <v>2.899145903420246</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.01696045684161</v>
+        <v>14.50573863236291</v>
       </c>
       <c r="L7">
-        <v>6.723424263886733</v>
+        <v>12.38991459876019</v>
       </c>
       <c r="M7">
-        <v>10.50380125716357</v>
+        <v>9.128582107612893</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.745943767537671</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.53002514741728</v>
       </c>
       <c r="P7">
-        <v>12.98348995331121</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.51180019070092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.84502058876617</v>
+      </c>
+      <c r="S7">
+        <v>16.11982136725646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4826602194232</v>
+        <v>12.29911568151998</v>
       </c>
       <c r="C8">
-        <v>8.184183993480667</v>
+        <v>8.495500001073621</v>
       </c>
       <c r="D8">
-        <v>7.853476226560906</v>
+        <v>7.989860834635428</v>
       </c>
       <c r="E8">
-        <v>11.6804522530945</v>
+        <v>11.7762153093234</v>
       </c>
       <c r="F8">
-        <v>23.63329388096218</v>
+        <v>23.12761464569718</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.982239094070661</v>
+        <v>1.924600369325376</v>
       </c>
       <c r="I8">
-        <v>2.8583350787087</v>
+        <v>2.739883267675762</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.95274370278445</v>
+        <v>14.40647865005224</v>
       </c>
       <c r="L8">
-        <v>6.985309491453341</v>
+        <v>12.20847384423793</v>
       </c>
       <c r="M8">
-        <v>11.43332883877827</v>
+        <v>9.111225273692183</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.00136234339432</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.45407896425051</v>
       </c>
       <c r="P8">
-        <v>12.81039796600575</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.61907546141195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.68296019832889</v>
+      </c>
+      <c r="S8">
+        <v>16.18456107177793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.40590059985652</v>
+        <v>14.10738266686236</v>
       </c>
       <c r="C9">
-        <v>9.34852881494923</v>
+        <v>9.868036356588309</v>
       </c>
       <c r="D9">
-        <v>8.799604802103129</v>
+        <v>8.962119107687986</v>
       </c>
       <c r="E9">
-        <v>13.00759895404758</v>
+        <v>13.10418757543048</v>
       </c>
       <c r="F9">
-        <v>24.78275003273495</v>
+        <v>24.153159645406</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.637466976358939</v>
+        <v>1.678361018086073</v>
       </c>
       <c r="I9">
-        <v>2.525468775463866</v>
+        <v>2.525433522064539</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.88253309927382</v>
+        <v>14.25804601881207</v>
       </c>
       <c r="L9">
-        <v>7.46886785118279</v>
+        <v>11.88705619619448</v>
       </c>
       <c r="M9">
-        <v>13.06073994698299</v>
+        <v>9.239206779968363</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.473430938922325</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.07197897300255</v>
       </c>
       <c r="P9">
-        <v>12.48476482586505</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.89626417192232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.38031752860608</v>
+      </c>
+      <c r="S9">
+        <v>16.37248448155682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.63047228050506</v>
+        <v>15.26076511905781</v>
       </c>
       <c r="C10">
-        <v>10.10777523986967</v>
+        <v>10.75570460113994</v>
       </c>
       <c r="D10">
-        <v>9.345121838868732</v>
+        <v>9.52453904589458</v>
       </c>
       <c r="E10">
-        <v>13.67287633287341</v>
+        <v>13.77047097829225</v>
       </c>
       <c r="F10">
-        <v>25.46404771255904</v>
+        <v>24.75050809902301</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.962830606334572</v>
+        <v>1.992984729526209</v>
       </c>
       <c r="I10">
-        <v>2.654492979781476</v>
+        <v>2.724993772374635</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.79811409230524</v>
+        <v>14.11791679514436</v>
       </c>
       <c r="L10">
-        <v>7.693135574073513</v>
+        <v>11.62670926966473</v>
       </c>
       <c r="M10">
-        <v>14.1075943576124</v>
+        <v>9.381104884682962</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.690504823239828</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.11260197425458</v>
       </c>
       <c r="P10">
-        <v>12.25359511299853</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.04824503715673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.16950174874836</v>
+      </c>
+      <c r="S10">
+        <v>16.46187084621989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.93983918389328</v>
+        <v>15.57375459981666</v>
       </c>
       <c r="C11">
-        <v>10.12857457526549</v>
+        <v>10.7663340514957</v>
       </c>
       <c r="D11">
-        <v>8.749263897143098</v>
+        <v>8.924147507694503</v>
       </c>
       <c r="E11">
-        <v>11.98930452953232</v>
+        <v>12.08357973377117</v>
       </c>
       <c r="F11">
-        <v>24.397882317931</v>
+        <v>23.70474206668944</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.846040258985818</v>
+        <v>2.86488483303043</v>
       </c>
       <c r="I11">
-        <v>2.721959550828994</v>
+        <v>2.788954671301597</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>14.35762796681053</v>
+        <v>13.71067248015239</v>
       </c>
       <c r="L11">
-        <v>6.896352581226529</v>
+        <v>11.27621027671264</v>
       </c>
       <c r="M11">
-        <v>14.31627399284928</v>
+        <v>9.159405674542322</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.894999276817583</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.32024582678877</v>
       </c>
       <c r="P11">
-        <v>12.16856760813662</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.49331611426236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.10921111583836</v>
+      </c>
+      <c r="S11">
+        <v>15.92671875315587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.97204165487774</v>
+        <v>15.62354140183343</v>
       </c>
       <c r="C12">
-        <v>9.955745434768959</v>
+        <v>10.55734218011653</v>
       </c>
       <c r="D12">
-        <v>8.119674044595966</v>
+        <v>8.286981661446854</v>
       </c>
       <c r="E12">
-        <v>10.4607478125785</v>
+        <v>10.5515757717769</v>
       </c>
       <c r="F12">
-        <v>23.37046774499866</v>
+        <v>22.71293393392437</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.118102447625198</v>
+        <v>4.130755628881558</v>
       </c>
       <c r="I12">
-        <v>2.729828666258082</v>
+        <v>2.796110309746207</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>14.02617485937388</v>
+        <v>13.41880329206613</v>
       </c>
       <c r="L12">
-        <v>6.26015669743141</v>
+        <v>11.0586461087212</v>
       </c>
       <c r="M12">
-        <v>14.27971174969421</v>
+        <v>8.949357905777886</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.261726067910637</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.28404707942112</v>
       </c>
       <c r="P12">
-        <v>12.15590853940976</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>16.00768708812027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.11120949741312</v>
+      </c>
+      <c r="S12">
+        <v>15.47141783967983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.77490509826902</v>
+        <v>15.45655289077113</v>
       </c>
       <c r="C13">
-        <v>9.652778089894399</v>
+        <v>10.19541769821834</v>
       </c>
       <c r="D13">
-        <v>7.41676362364452</v>
+        <v>7.573583344368521</v>
       </c>
       <c r="E13">
-        <v>8.952735150122752</v>
+        <v>9.039997133202164</v>
       </c>
       <c r="F13">
-        <v>22.27002101821746</v>
+        <v>21.6627215284487</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.451073025488338</v>
+        <v>5.460843240136417</v>
       </c>
       <c r="I13">
-        <v>2.697899496477719</v>
+        <v>2.767146029318157</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.73591401151548</v>
+        <v>13.17604971938169</v>
       </c>
       <c r="L13">
-        <v>5.728663324633912</v>
+        <v>10.90550265773078</v>
       </c>
       <c r="M13">
-        <v>14.05085393392751</v>
+        <v>8.720235881198587</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.734730249645858</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.05668393377718</v>
       </c>
       <c r="P13">
-        <v>12.19467115635558</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.52145193032056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.15785405068394</v>
+      </c>
+      <c r="S13">
+        <v>15.02598616605627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52660838429449</v>
+        <v>15.23553344310076</v>
       </c>
       <c r="C14">
-        <v>9.384725660811373</v>
+        <v>9.874876059044754</v>
       </c>
       <c r="D14">
-        <v>6.885669803430998</v>
+        <v>7.033778408011451</v>
       </c>
       <c r="E14">
-        <v>7.93087777204221</v>
+        <v>8.015591572382183</v>
       </c>
       <c r="F14">
-        <v>21.460563585408</v>
+        <v>20.89519195698788</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.467419207764983</v>
+        <v>6.460618889742804</v>
       </c>
       <c r="I14">
-        <v>2.659019594476498</v>
+        <v>2.732321148461176</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.54993201425153</v>
+        <v>13.0264375835102</v>
       </c>
       <c r="L14">
-        <v>5.437173146353332</v>
+        <v>10.82244851473052</v>
       </c>
       <c r="M14">
-        <v>13.80063039687882</v>
+        <v>8.552819610477249</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.447062006814166</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.80803078172957</v>
       </c>
       <c r="P14">
-        <v>12.24527736872389</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.1784991170099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.21068391254984</v>
+      </c>
+      <c r="S14">
+        <v>14.71619833717128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.4108276064839</v>
+        <v>15.12924402961705</v>
       </c>
       <c r="C15">
-        <v>9.299111609205223</v>
+        <v>9.771592085999172</v>
       </c>
       <c r="D15">
-        <v>6.74151321558947</v>
+        <v>6.886917806898409</v>
       </c>
       <c r="E15">
-        <v>7.683771697224602</v>
+        <v>7.768000899104079</v>
       </c>
       <c r="F15">
-        <v>21.2430953251742</v>
+        <v>20.69095352447353</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.706328145482036</v>
+        <v>6.699439182400043</v>
       </c>
       <c r="I15">
-        <v>2.642566753865049</v>
+        <v>2.718167418168264</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.50913902945307</v>
+        <v>12.99615964818347</v>
       </c>
       <c r="L15">
-        <v>5.377667092609141</v>
+        <v>10.81055528206525</v>
       </c>
       <c r="M15">
-        <v>13.69727761823174</v>
+        <v>8.506810463664394</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.388748617259187</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.7053158645903</v>
       </c>
       <c r="P15">
-        <v>12.26737803397886</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>15.09132080754874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.23211913190221</v>
+      </c>
+      <c r="S15">
+        <v>14.63923321160737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.92812535652989</v>
+        <v>14.67216345438367</v>
       </c>
       <c r="C16">
-        <v>9.039607176254112</v>
+        <v>9.466224696171412</v>
       </c>
       <c r="D16">
-        <v>6.61364358781982</v>
+        <v>6.75397024424197</v>
       </c>
       <c r="E16">
-        <v>7.62811405156353</v>
+        <v>7.714372672007745</v>
       </c>
       <c r="F16">
-        <v>21.13899346740616</v>
+        <v>20.61307796020331</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.49619853935435</v>
+        <v>6.487434088870393</v>
       </c>
       <c r="I16">
-        <v>2.558553626085484</v>
+        <v>2.642816904787324</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>13.59678151994704</v>
+        <v>13.09636410315903</v>
       </c>
       <c r="L16">
-        <v>5.373847788297549</v>
+        <v>10.91925689974138</v>
       </c>
       <c r="M16">
-        <v>13.29839264938706</v>
+        <v>8.496822137735002</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.38739708601004</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.3088301325497</v>
       </c>
       <c r="P16">
-        <v>12.35015078257902</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>15.11201431460147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.30314053076238</v>
+      </c>
+      <c r="S16">
+        <v>14.67821208311014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68760293749514</v>
+        <v>14.43640487890892</v>
       </c>
       <c r="C17">
-        <v>8.987589195060604</v>
+        <v>9.407999957557381</v>
       </c>
       <c r="D17">
-        <v>6.808711748611277</v>
+        <v>6.949784851033167</v>
       </c>
       <c r="E17">
-        <v>8.126093932337994</v>
+        <v>8.21483336676153</v>
       </c>
       <c r="F17">
-        <v>21.49450587664929</v>
+        <v>20.96625836868965</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.753356010950444</v>
+        <v>5.742446149494736</v>
       </c>
       <c r="I17">
-        <v>2.514835092818397</v>
+        <v>2.603698316888013</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>13.76141824909227</v>
+        <v>13.25192222002379</v>
       </c>
       <c r="L17">
-        <v>5.510628498267958</v>
+        <v>11.05248612077745</v>
       </c>
       <c r="M17">
-        <v>13.12544922060275</v>
+        <v>8.575091526085213</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.524072846335708</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.13688274632859</v>
       </c>
       <c r="P17">
-        <v>12.38790175754832</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>15.31057484948288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.33116013277262</v>
+      </c>
+      <c r="S17">
+        <v>14.87327384817323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64790500084622</v>
+        <v>14.38349835920972</v>
       </c>
       <c r="C18">
-        <v>9.093626778177958</v>
+        <v>9.54150016565722</v>
       </c>
       <c r="D18">
-        <v>7.303282864342921</v>
+        <v>7.450121831746928</v>
       </c>
       <c r="E18">
-        <v>9.234287508313839</v>
+        <v>9.325438460591979</v>
       </c>
       <c r="F18">
-        <v>22.3010550477297</v>
+        <v>21.74587169287932</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.484620610486014</v>
+        <v>4.47046362789996</v>
       </c>
       <c r="I18">
-        <v>2.50584659862987</v>
+        <v>2.586594593279533</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.02344301610336</v>
+        <v>13.48491151005007</v>
       </c>
       <c r="L18">
-        <v>5.866394293091262</v>
+        <v>11.23444571193884</v>
       </c>
       <c r="M18">
-        <v>13.13447768588663</v>
+        <v>8.739528843847205</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.877380718914703</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.14576266507818</v>
       </c>
       <c r="P18">
-        <v>12.39479492936285</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.694642088342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.32796644990026</v>
+      </c>
+      <c r="S18">
+        <v>15.23482045961227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.74887383809885</v>
+        <v>14.45826464248413</v>
       </c>
       <c r="C19">
-        <v>9.362380825740097</v>
+        <v>9.863127066512339</v>
       </c>
       <c r="D19">
-        <v>8.006324676556813</v>
+        <v>8.162440988395131</v>
       </c>
       <c r="E19">
-        <v>10.81702200529567</v>
+        <v>10.91046215986067</v>
       </c>
       <c r="F19">
-        <v>23.37909437983969</v>
+        <v>22.77976288296231</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.960298795455307</v>
+        <v>2.962449831052198</v>
       </c>
       <c r="I19">
-        <v>2.514973618907225</v>
+        <v>2.603074959955229</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>14.32488689548442</v>
+        <v>13.74423618188007</v>
       </c>
       <c r="L19">
-        <v>6.467239272754919</v>
+        <v>11.42910945411818</v>
       </c>
       <c r="M19">
-        <v>13.28911020389469</v>
+        <v>8.943021623936239</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.474177393440694</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.29932737217643</v>
       </c>
       <c r="P19">
-        <v>12.38366668981425</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>16.17655473751267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.30686239353166</v>
+      </c>
+      <c r="S19">
+        <v>15.68099880169547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2775641181621</v>
+        <v>14.92658040844969</v>
       </c>
       <c r="C20">
-        <v>9.981794046761605</v>
+        <v>10.5984016453677</v>
       </c>
       <c r="D20">
-        <v>9.215048674551632</v>
+        <v>9.389981545542406</v>
       </c>
       <c r="E20">
-        <v>13.49673748232583</v>
+        <v>13.59403192373328</v>
       </c>
       <c r="F20">
-        <v>25.2186964187984</v>
+        <v>24.52803572983156</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.875052895548321</v>
+        <v>1.908067405363945</v>
       </c>
       <c r="I20">
-        <v>2.609942313909152</v>
+        <v>2.68905919104372</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.77049023483744</v>
+        <v>14.108110284017</v>
       </c>
       <c r="L20">
-        <v>7.628080610583051</v>
+        <v>11.66182126475145</v>
       </c>
       <c r="M20">
-        <v>13.83761774913058</v>
+        <v>9.300568553580712</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.627357558420946</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.84427098773834</v>
       </c>
       <c r="P20">
-        <v>12.3129731827627</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.95852624960224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.22493244582089</v>
+      </c>
+      <c r="S20">
+        <v>16.38990939096126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.21414903220502</v>
+        <v>15.80500355658315</v>
       </c>
       <c r="C21">
-        <v>10.58716062987565</v>
+        <v>11.30845701607232</v>
       </c>
       <c r="D21">
-        <v>9.76459765217739</v>
+        <v>9.954253605088072</v>
       </c>
       <c r="E21">
-        <v>14.34352442931967</v>
+        <v>14.44237017795106</v>
       </c>
       <c r="F21">
-        <v>25.99670222786064</v>
+        <v>25.23169562993101</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.136862643924411</v>
+        <v>2.16162031498105</v>
       </c>
       <c r="I21">
-        <v>2.779374901019472</v>
+        <v>2.842040687763507</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.79104432663577</v>
+        <v>14.07355198086605</v>
       </c>
       <c r="L21">
-        <v>7.964130231559466</v>
+        <v>11.51521750640254</v>
       </c>
       <c r="M21">
-        <v>14.64744317863305</v>
+        <v>9.49051654966272</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.957344816661061</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.64912045990979</v>
       </c>
       <c r="P21">
-        <v>12.13675528169746</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.20217328274795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.0620925616718</v>
+      </c>
+      <c r="S21">
+        <v>16.57616357158164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.80142874561429</v>
+        <v>16.35774011318115</v>
       </c>
       <c r="C22">
-        <v>10.92298222366909</v>
+        <v>11.70516835441824</v>
       </c>
       <c r="D22">
-        <v>10.05710752713421</v>
+        <v>10.25544763014079</v>
       </c>
       <c r="E22">
-        <v>14.75949260042284</v>
+        <v>14.85921570238397</v>
       </c>
       <c r="F22">
-        <v>26.44758983140402</v>
+        <v>25.63759937635926</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.298291747303818</v>
+        <v>2.317730312043567</v>
       </c>
       <c r="I22">
-        <v>2.881455813791764</v>
+        <v>2.932486258266001</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>14.80511946939164</v>
+        <v>14.05279766918678</v>
       </c>
       <c r="L22">
-        <v>8.123972432826388</v>
+        <v>11.41832324369948</v>
       </c>
       <c r="M22">
-        <v>15.14095720392681</v>
+        <v>9.629114566786338</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.113600841572051</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.13952574324642</v>
       </c>
       <c r="P22">
-        <v>12.02338341748918</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.34881376426193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.95800607856684</v>
+      </c>
+      <c r="S22">
+        <v>16.68742065873482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50502216801302</v>
+        <v>16.07948815091014</v>
       </c>
       <c r="C23">
-        <v>10.71960543187951</v>
+        <v>11.46901843648867</v>
       </c>
       <c r="D23">
-        <v>9.896726036466298</v>
+        <v>10.09047665577814</v>
       </c>
       <c r="E23">
-        <v>14.5368670098711</v>
+        <v>14.63611463840313</v>
       </c>
       <c r="F23">
-        <v>26.22879608796221</v>
+        <v>25.44253388017604</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.213098038341825</v>
+        <v>2.235346216608106</v>
       </c>
       <c r="I23">
-        <v>2.822434689644076</v>
+        <v>2.878339382355018</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>14.8148046608968</v>
+        <v>14.08013972820656</v>
       </c>
       <c r="L23">
-        <v>8.039851378086755</v>
+        <v>11.48086261593059</v>
       </c>
       <c r="M23">
-        <v>14.88015079243169</v>
+        <v>9.568354584861705</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.031367426777319</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.88036323059784</v>
       </c>
       <c r="P23">
-        <v>12.08398170414945</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.28683958262165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.01301128725658</v>
+      </c>
+      <c r="S23">
+        <v>16.6439944598776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.30377329801559</v>
+        <v>14.95032616744269</v>
       </c>
       <c r="C24">
-        <v>9.963078488559852</v>
+        <v>10.58316619347132</v>
       </c>
       <c r="D24">
-        <v>9.276167437831148</v>
+        <v>9.45198380635429</v>
       </c>
       <c r="E24">
-        <v>13.66676411719358</v>
+        <v>13.7643375180523</v>
       </c>
       <c r="F24">
-        <v>25.3646585523346</v>
+        <v>24.66955121897919</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.881985341488502</v>
+        <v>1.915032848599395</v>
       </c>
       <c r="I24">
-        <v>2.602373867516743</v>
+        <v>2.679287108123448</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.83238735926684</v>
+        <v>14.16416409310435</v>
       </c>
       <c r="L24">
-        <v>7.711546661721576</v>
+        <v>11.70397877985047</v>
       </c>
       <c r="M24">
-        <v>13.84774672791116</v>
+        <v>9.343928728680812</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.710502340704493</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.85430484257317</v>
       </c>
       <c r="P24">
-        <v>12.31558660798852</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.03632660277096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.22515497834624</v>
+      </c>
+      <c r="S24">
+        <v>16.46371970218715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88818132165157</v>
+        <v>13.61937983354493</v>
       </c>
       <c r="C25">
-        <v>9.089748669955821</v>
+        <v>9.557189977812444</v>
       </c>
       <c r="D25">
-        <v>8.561998807960796</v>
+        <v>8.717535442794754</v>
       </c>
       <c r="E25">
-        <v>12.66532035920427</v>
+        <v>12.76151671720815</v>
       </c>
       <c r="F25">
-        <v>24.43538377822283</v>
+        <v>23.8397169472659</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.614151790582476</v>
+        <v>1.56804311835001</v>
       </c>
       <c r="I25">
-        <v>2.630530555483586</v>
+        <v>2.539326602688961</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.87107932362699</v>
+        <v>14.27002816067268</v>
       </c>
       <c r="L25">
-        <v>7.340258372649902</v>
+        <v>11.9527123646673</v>
       </c>
       <c r="M25">
-        <v>12.64055806508775</v>
+        <v>9.169328974004817</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.347818814675954</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.65427476708346</v>
       </c>
       <c r="P25">
-        <v>12.57072814833313</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.79028289853945</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.46058134739779</v>
+      </c>
+      <c r="S25">
+        <v>16.29168881140582</v>
       </c>
     </row>
   </sheetData>
